--- a/Feb 2021/ISO90012015.xlsx
+++ b/Feb 2021/ISO90012015.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B128"/>
+  <dimension ref="A1:B426"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>46</v>
+        <v>882</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>38</v>
+        <v>712</v>
       </c>
     </row>
     <row r="4">
@@ -396,7 +396,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>17</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5">
@@ -406,7 +406,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>11</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6">
@@ -416,1227 +416,4207 @@
         </is>
       </c>
       <c r="B6">
-        <v>8</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ISO 19011:2018</t>
+          <t>ISO 19011:2011</t>
         </is>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ISO 19011:2011</t>
+          <t>ISO 9001:2015 Plus Redline</t>
         </is>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ISO 31000:2009</t>
+          <t>ISO/IEC 17025:2017</t>
         </is>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ISO 9001:2015 Plus Redline</t>
+          <t>SAE AS 9100D-2016 (SAE AS9100D-2016)</t>
         </is>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ISO 9004:2009</t>
+          <t>ISO 19011:2018</t>
         </is>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ANSI/ASQ Z1.4 and Z1.9 - Sampling Procedures and Tables Package</t>
+          <t>ISO 9001:2008</t>
         </is>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ISO 9001:2008</t>
+          <t>ISO 31000:2009</t>
         </is>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ISO 10012:2003</t>
+          <t>ISO 9001:2015 and ISO 9001:2008 - Quality Management Transition Set</t>
         </is>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ISO 11135:2014</t>
+          <t>ISO 9004:2009</t>
         </is>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ISO 31000:2018</t>
+          <t>ISO/IEC 17025:2005</t>
         </is>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ISO/IEC 17024:2012</t>
+          <t>ISO/TS 22002-4:2013</t>
         </is>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ISO/IEC 17025:2005</t>
+          <t>OHSAS 18001:2007</t>
         </is>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ISO/IEC 17025:2017</t>
+          <t>ISO/IEC 27001 and 27002 IT Security Techniques Package</t>
         </is>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ISO/IEC 20000-1:2018</t>
+          <t>ISO/IEC 20000-1:2011</t>
         </is>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ISO/IEC 27000:2018</t>
+          <t>ISO 31000:2018</t>
         </is>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ISO/IEC 27005:2018</t>
+          <t>ISO 45001:2018</t>
         </is>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ISO/TS 22002-4:2013</t>
+          <t>ISO/TS 9002:2016</t>
         </is>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>AAMI TIR12:2010 (AAMI TIR 12:2010)</t>
+          <t>ISO/TS 16949:2009</t>
         </is>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>AAMI TIR30:2011 (R2016)</t>
+          <t>ANSI/ASQ Z1.4 and Z1.9 - Sampling Procedures and Tables Package</t>
         </is>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>AIAG MSA-4:2010</t>
+          <t>ANSI/ESD S20.20-2014</t>
         </is>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ANSI B11.22-2002 (R2012)</t>
+          <t>ISO 9000:2015 Plus Redline</t>
         </is>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ANSI B11.23-2002 (R2012)</t>
+          <t>ISO 10012:2003</t>
         </is>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ANSI MH16.1-2012</t>
+          <t>ISO 14644-1:2015</t>
         </is>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ANSI Z97.1-2015</t>
+          <t>ISO/IEC 20000-1:2018</t>
         </is>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ANSI/AAMI ST58:2013 (R2018)</t>
+          <t>ISO 14971:2007</t>
         </is>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ANSI/AAMI ST72:2011(R2016)</t>
+          <t>ISO 15223-1:2016</t>
         </is>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ANSI/AAMI ST79:2017</t>
+          <t>SAE AS 9100C-2009 (SAE AS9100C-2009)</t>
         </is>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ANSI/AAMI/ISO 10993-17:2002 (R2012)</t>
+          <t>ISO 22000 / ISO/TS 22002-1 - Food Safety Bundle</t>
         </is>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ANSI/ASME Y14.24-2012</t>
+          <t>ISO 22000:2005</t>
         </is>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ANSI/ASSE Z490.1-2016</t>
+          <t>ISO/DIS 45001</t>
         </is>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ANSI/ESD S20.20-2014</t>
+          <t>ISO/IEC 27000:2018</t>
         </is>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ANSI/HI 14.6-2011</t>
+          <t>ISO/IEC 90003:2014</t>
         </is>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ANSI/ISO 12100:2012</t>
+          <t>ISO 17100:2015</t>
         </is>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ASME A17.1-2013/CSA B44-13</t>
+          <t>ISO 9001 for Small Businesses:2010</t>
         </is>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ASME Y14.34-2013</t>
+          <t>SAE AS 9102B-2014 (SAE AS9102B-2014)</t>
         </is>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ASME Y14.35-2014</t>
+          <t>ISO 14644-2:2015</t>
         </is>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ASME Y14.38-2007 (R2013)</t>
+          <t>ISO 9004:2018</t>
         </is>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ASME Y14.5 and ASME Y14.100 Dimensioning Tolerancing and Engineering Drawing Practices Package</t>
+          <t>ISO/IEC 17024:2012</t>
         </is>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ASTM B117-11</t>
+          <t>ISO/IEC 27002:2013</t>
         </is>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ASTM D1042-12(2017)</t>
+          <t>ISO/IEC 27005:2018</t>
         </is>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ASTM D257-14</t>
+          <t>ISO 11135:2014</t>
         </is>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ASTM D5592-94(2018)</t>
+          <t>ISO 13485 and ISO 14971 - Medical Devices Package</t>
         </is>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ASTM D570-98(2018)</t>
+          <t>ISO 14004:2016</t>
         </is>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>ASTM E1941-10(2016)</t>
+          <t>ISO/TS 29001:2010</t>
         </is>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>ASTM E793-06(2018)</t>
+          <t>ISO 14001:2015 Plus Redline</t>
         </is>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>ASTM E794-06(2018)</t>
+          <t>ISO 19011:2011 Plus Redline</t>
         </is>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>BS EN 1041:2008+A1:2013</t>
+          <t>ISO 31000 - Risk Management Package</t>
         </is>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BS EN 556-1:2001</t>
+          <t>ISO/IEC 17021-3:2017</t>
         </is>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>BS EN ISO 14971:2012</t>
+          <t>AAMI TIR12:2010 (AAMI TIR 12:2010)</t>
         </is>
       </c>
       <c r="B55">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BS ISO 31000:2009</t>
+          <t>ISO 19011 / ISO 10005 / ISO 10015 / ISO/TR 10013 - Quality Management Systems Package</t>
         </is>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>ICC IBC-2018</t>
+          <t>ISO 22000:2018</t>
         </is>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>IEC 60601-1-2 Ed. 4.0 b:2014</t>
+          <t>ISO 9001:2015[S]</t>
         </is>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>IEC 60812 Ed. 3.0 b:2018</t>
+          <t>ISO 10007:2017</t>
         </is>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>IEC 61010-1 Ed. 3.0 b:2010</t>
+          <t>ISO 13528:2015</t>
         </is>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>IEC 82304-1 Ed. 1.0 b:2016</t>
+          <t>ISO 14644-1 and ISO 14644-2 - Classification of Air Cleanliness Package</t>
         </is>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>ISO 10002:2018</t>
+          <t>ISO 15378:2015</t>
         </is>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>ISO 10007:2017</t>
+          <t>ISO 9000:2005</t>
         </is>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>ISO 10993-1:2018</t>
+          <t>ISO/IEC 17020:2012</t>
         </is>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>ISO 10993-16:2017</t>
+          <t>ISO/TR 31004:2013</t>
         </is>
       </c>
       <c r="B65">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>ISO 10993-4:2017</t>
+          <t>SAE AS 9110B-2012 (SAE AS9110B-2012)</t>
         </is>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>ISO 11607-1:2019</t>
+          <t>SAE AS 9120A-2009 (SAE AS9120A-2009)</t>
         </is>
       </c>
       <c r="B67">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>ISO 11607-2:2019</t>
+          <t>ASTM F2575-14</t>
         </is>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>ISO 11737-1:2018</t>
+          <t>BS EN ISO 14971:2012</t>
         </is>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>ISO 13485 / IEC 62304 / ISO 14971 - Medical Devices Package</t>
+          <t>BS EN ISO/IEC 27001:2017</t>
         </is>
       </c>
       <c r="B70">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>ISO 13485:2016 Plus Redline</t>
+          <t>BS OHSAS 18001:2007</t>
         </is>
       </c>
       <c r="B71">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>ISO 13528:2015</t>
+          <t>IEC 61010-1 Ed. 3.0 b:2010</t>
         </is>
       </c>
       <c r="B72">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>ISO 13779-3:2018</t>
+          <t>ISO 10005:2005</t>
         </is>
       </c>
       <c r="B73">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>ISO 14044:2006</t>
+          <t>ISO 12100:2010</t>
         </is>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>ISO 14184-1:2011</t>
+          <t>ISO 14644-1 / ISO 14644-2 / ISO 14644-3 / ISO 14644-4 - Cleanrooms and Controlled Environments Package</t>
         </is>
       </c>
       <c r="B75">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>ISO 14184-2:2011</t>
+          <t>ISO 18091:2014</t>
         </is>
       </c>
       <c r="B76">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>ISO 14644-1:2015</t>
+          <t>ISO 19600:2014</t>
         </is>
       </c>
       <c r="B77">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>ISO 14644-2:2015</t>
+          <t>ISO 31000 / ISO Guide 73 / ISO/IEC 31010 Risk Management Package</t>
         </is>
       </c>
       <c r="B78">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>ISO 14971:2007</t>
+          <t>ISO 55000:2014</t>
         </is>
       </c>
       <c r="B79">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>ISO 15223-1:2016</t>
+          <t>ISO/IEC 27017:2015</t>
         </is>
       </c>
       <c r="B80">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>ISO 15378:2015</t>
+          <t>OHSAS 18002:2008</t>
         </is>
       </c>
       <c r="B81">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>ISO 15883-1:2006</t>
+          <t>AAMI TIR30:2011 (R2016)</t>
         </is>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>ISO 17664:2017</t>
+          <t>ANSI B11.22-2002 (R2012)</t>
         </is>
       </c>
       <c r="B83">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>ISO 17665-1:2006</t>
+          <t>ANSI B11.23-2002 (R2012)</t>
         </is>
       </c>
       <c r="B84">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>ISO 19011 / ISO 10005 / ISO 10015 / ISO/TR 10013 - Quality Management Systems Package</t>
+          <t>ANSI Catalog</t>
         </is>
       </c>
       <c r="B85">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>ISO 19011:2011 Plus Redline</t>
+          <t>ANSI Z97.1-2015</t>
         </is>
       </c>
       <c r="B86">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>ISO 22000 / ISO/TS 22002-1 - Food Safety Bundle</t>
+          <t>ANSI/AAMI ST58:2013 (R2018)</t>
         </is>
       </c>
       <c r="B87">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>ISO 22000:2005</t>
+          <t>ANSI/AAMI ST72:2011(R2016)</t>
         </is>
       </c>
       <c r="B88">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>ISO 22000:2018</t>
+          <t>ANSI/AAMI ST79:2017</t>
         </is>
       </c>
       <c r="B89">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>ISO 22005:2007</t>
+          <t>ANSI/AAMI/ISO 10993-17:2002 (R2012)</t>
         </is>
       </c>
       <c r="B90">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>ISO 22300 / ISO 22301 / ISO 22313 - Societal Security Business Continuity Package</t>
+          <t>ANSI/AAMI/ISO 13485:2016</t>
         </is>
       </c>
       <c r="B91">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>ISO 24512:2007</t>
+          <t>ANSI/ASQ Z1.4-2003 (R2013)</t>
         </is>
       </c>
       <c r="B92">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>ISO 31000 - Risk Management Package</t>
+          <t>ANSI/ISO 12100:2012</t>
         </is>
       </c>
       <c r="B93">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>ISO 31000 / ISO Guide 73 / ISO/IEC 31010 Risk Management Package</t>
+          <t>ASTM D1042-12(2017)</t>
         </is>
       </c>
       <c r="B94">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>ISO 4064-1:2014</t>
+          <t>ASTM D5592-94(2018)</t>
         </is>
       </c>
       <c r="B95">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>ISO 4064-2:2014</t>
+          <t>ASTM D570-98(2018)</t>
         </is>
       </c>
       <c r="B96">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>ISO 45001:2018</t>
+          <t>ASTM E1941-10(2016)</t>
         </is>
       </c>
       <c r="B97">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>ISO 55000:2014</t>
+          <t>ASTM E793-06(2018)</t>
         </is>
       </c>
       <c r="B98">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>ISO 60:1977</t>
+          <t>ASTM E794-06(2018)</t>
         </is>
       </c>
       <c r="B99">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>ISO 7153-1:2016</t>
+          <t>BS EN 1041:2008+A1:2013</t>
         </is>
       </c>
       <c r="B100">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>ISO 9000:2005</t>
+          <t>BS EN 556-1:2001</t>
         </is>
       </c>
       <c r="B101">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>ISO 9001:2015 and ISO 9001:2008 - Quality Management Transition Set</t>
+          <t>IEC 60079-0 Ed. 7.0 b:2017</t>
         </is>
       </c>
       <c r="B102">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>ISO 9004:2018</t>
+          <t>IEC 60812 Ed. 3.0 b:2018</t>
         </is>
       </c>
       <c r="B103">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>ISO/DIS 45001</t>
+          <t>ISO 10002:2018</t>
         </is>
       </c>
       <c r="B104">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>ISO/IEC 17020:2012</t>
+          <t>ISO 10006:2003</t>
         </is>
       </c>
       <c r="B105">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>ISO/IEC 20000-1:2011</t>
+          <t>ISO 10993-1:2018</t>
         </is>
       </c>
       <c r="B106">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>ISO/IEC 27001 and 27002 IT Security Techniques Package</t>
+          <t>ISO 10993-16:2017</t>
         </is>
       </c>
       <c r="B107">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>ISO/IEC 27002:2013</t>
+          <t>ISO 10993-4:2017</t>
         </is>
       </c>
       <c r="B108">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>ISO/IEC 27018 / ISO/IEC 29100 / ISO/IEC 27001 - Public Clouds Privacy Framework Package</t>
+          <t>ISO 11607-1:2019</t>
         </is>
       </c>
       <c r="B109">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>ISO/IEC 27018:2019</t>
+          <t>ISO 11607-2:2019</t>
         </is>
       </c>
       <c r="B110">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>ISO/IEC 80079-34:2018</t>
+          <t>ISO 11737-1:2018</t>
         </is>
       </c>
       <c r="B111">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>ISO/IEC 90003:2014</t>
+          <t>ISO 13485 / IEC 62304 / ISO 14971 - Medical Devices Package</t>
         </is>
       </c>
       <c r="B112">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>ISO/TR 10013:2001</t>
+          <t>ISO 13485:2016 - Medical Devices - A Practical Guide</t>
         </is>
       </c>
       <c r="B113">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>ISO/TS 17665-2:2009</t>
+          <t>ISO 13779-3:2018</t>
         </is>
       </c>
       <c r="B114">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>ISO/TS 17665-3:2013</t>
+          <t>ISO 14184-1:2011</t>
         </is>
       </c>
       <c r="B115">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>ISO/TS 22002-2:2013</t>
+          <t>ISO 14184-2:2011</t>
         </is>
       </c>
       <c r="B116">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>ISO/TS 9002:2016</t>
+          <t>ISO 15883-1:2006</t>
         </is>
       </c>
       <c r="B117">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Laboratory Inspection and Testing</t>
+          <t>ISO 17664:2017</t>
         </is>
       </c>
       <c r="B118">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>OHSAS 18001:2007</t>
+          <t>ISO 17665-1:2006</t>
         </is>
       </c>
       <c r="B119">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>OHSAS 18002:2008</t>
+          <t>ISO 22005:2007</t>
         </is>
       </c>
       <c r="B120">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>OVE/ONORM EN ISO/IEC 17050-1:2010</t>
+          <t>ISO 22300 / ISO 22301 / ISO 22313 - Societal Security Business Continuity Package</t>
         </is>
       </c>
       <c r="B121">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>SAE AMS 3302H-2011 (SAE AMS3302H-2011)</t>
+          <t>ISO 22716:2007</t>
         </is>
       </c>
       <c r="B122">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>SAE AS 9100C-2009 (SAE AS9100C-2009)</t>
+          <t>ISO 26262 - Road Vehicles Functional Safety Package</t>
         </is>
       </c>
       <c r="B123">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>SAE AS 9100D-2016 (SAE AS9100D-2016)</t>
+          <t>ISO 60:1977</t>
         </is>
       </c>
       <c r="B124">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>SAE AS 9104/1-2012 (SAE AS9104/1-2012)</t>
+          <t>ISO 7153-1:2016</t>
         </is>
       </c>
       <c r="B125">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>SAE AS 9110B-2012 (SAE AS9110B-2012)</t>
+          <t>ISO/IEC 17021-1:2015</t>
         </is>
       </c>
       <c r="B126">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>SAE AS 9120A-2009 (SAE AS9120A-2009)</t>
+          <t>ISO/IEC 27018 / ISO/IEC 29100 / ISO/IEC 27001 - Public Clouds Privacy Framework Package</t>
         </is>
       </c>
       <c r="B127">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
+          <t>ISO/IEC 27018:2019</t>
+        </is>
+      </c>
+      <c r="B128">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>ISO/IEC 80079-34:2018</t>
+        </is>
+      </c>
+      <c r="B129">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>ISO/TR 10013:2001</t>
+        </is>
+      </c>
+      <c r="B130">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>ISO/TS 17665-2:2009</t>
+        </is>
+      </c>
+      <c r="B131">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>ISO/TS 17665-3:2013</t>
+        </is>
+      </c>
+      <c r="B132">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>ISO/TS 22002-2:2013</t>
+        </is>
+      </c>
+      <c r="B133">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>SAE AS 5553B-2016 (SAE AS5553B-2016)</t>
+        </is>
+      </c>
+      <c r="B134">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>AIAG MSA-4:2010</t>
+        </is>
+      </c>
+      <c r="B135">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>ANSI/ASME Y14.24-2012</t>
+        </is>
+      </c>
+      <c r="B136">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>ANSI/HI 14.6-2011</t>
+        </is>
+      </c>
+      <c r="B137">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>ASME Y14.34-2013</t>
+        </is>
+      </c>
+      <c r="B138">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>ASME Y14.35-2014</t>
+        </is>
+      </c>
+      <c r="B139">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>ASME Y14.38-2007 (R2013)</t>
+        </is>
+      </c>
+      <c r="B140">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>ASME Y14.5 and ASME Y14.100 Dimensioning Tolerancing and Engineering Drawing Practices Package</t>
+        </is>
+      </c>
+      <c r="B141">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>ICC IBC-2018</t>
+        </is>
+      </c>
+      <c r="B142">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>IEC 82304-1 Ed. 1.0 b:2016</t>
+        </is>
+      </c>
+      <c r="B143">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>SAE AMS 3302H-2011 (SAE AMS3302H-2011)</t>
+        </is>
+      </c>
+      <c r="B144">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>SAE AS 9104/1-2012 (SAE AS9104/1-2012)</t>
+        </is>
+      </c>
+      <c r="B145">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
           <t>SS-EN ISO 14644-8:2013</t>
         </is>
       </c>
-      <c r="B128">
-        <v>1</v>
+      <c r="B146">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>ANSI A10.11-1989 (R1998)</t>
+        </is>
+      </c>
+      <c r="B147">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>ANSI B152.2-1982</t>
+        </is>
+      </c>
+      <c r="B148">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>ANSI MH16.1-2012</t>
+        </is>
+      </c>
+      <c r="B149">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>ANSI/AGMA 2000-A88</t>
+        </is>
+      </c>
+      <c r="B150">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>ANSI/AMCA 230-15</t>
+        </is>
+      </c>
+      <c r="B151">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>ANSI/ASSE Z490.1-2016</t>
+        </is>
+      </c>
+      <c r="B152">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>ANSI/ESD S6.1-2014</t>
+        </is>
+      </c>
+      <c r="B153">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>AQAP-2110 ED.D</t>
+        </is>
+      </c>
+      <c r="B154">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>ASME A17.1-2013/CSA B44-13</t>
+        </is>
+      </c>
+      <c r="B155">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>ASME B31.3-2014</t>
+        </is>
+      </c>
+      <c r="B156">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>ASME B46.1 / ANSI/ASME B1.2 - Surface Texture and Gaging for Screw Threads Package</t>
+        </is>
+      </c>
+      <c r="B157">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>ASTM A29/A29M-15</t>
+        </is>
+      </c>
+      <c r="B158">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>ASTM A295/A295M-14</t>
+        </is>
+      </c>
+      <c r="B159">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>ASTM A484/A484M-16</t>
+        </is>
+      </c>
+      <c r="B160">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>ASTM A534-14</t>
+        </is>
+      </c>
+      <c r="B161">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>ASTM A733-15</t>
+        </is>
+      </c>
+      <c r="B162">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>ASTM A866-14</t>
+        </is>
+      </c>
+      <c r="B163">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>ASTM B117-11</t>
+        </is>
+      </c>
+      <c r="B164">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>ASTM B687-99(2011)</t>
+        </is>
+      </c>
+      <c r="B165">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>ASTM D257-14</t>
+        </is>
+      </c>
+      <c r="B166">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>ASTM E2500-13</t>
+        </is>
+      </c>
+      <c r="B167">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>ASTM F2413-11</t>
+        </is>
+      </c>
+      <c r="B168">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>ASTM F438-15</t>
+        </is>
+      </c>
+      <c r="B169">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>ASTM F439-13</t>
+        </is>
+      </c>
+      <c r="B170">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>BS EN ISO 11607-1:2017</t>
+        </is>
+      </c>
+      <c r="B171">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>BS EN ISO 11607-2:2017</t>
+        </is>
+      </c>
+      <c r="B172">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>BS EN ISO 23640:2015</t>
+        </is>
+      </c>
+      <c r="B173">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>BS EN ISO 4787:2011</t>
+        </is>
+      </c>
+      <c r="B174">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>BS ISO 31000:2009</t>
+        </is>
+      </c>
+      <c r="B175">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>CLSI GP41-Ed7</t>
+        </is>
+      </c>
+      <c r="B176">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>CSA Z195.1-2002</t>
+        </is>
+      </c>
+      <c r="B177">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>CSA Z334-2014</t>
+        </is>
+      </c>
+      <c r="B178">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>DIN EN 13612:2002</t>
+        </is>
+      </c>
+      <c r="B179">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>DIN EN 13641:2002</t>
+        </is>
+      </c>
+      <c r="B180">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>DIN EN ISO 23640:2015</t>
+        </is>
+      </c>
+      <c r="B181">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>IEC 31010:2009</t>
+        </is>
+      </c>
+      <c r="B182">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>IEC 60068-2-30 Ed. 3.0 b:2005</t>
+        </is>
+      </c>
+      <c r="B183">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>IEC 60079-0 / IEC 60079-1 / IEC 60079-11 - Explosive Atmospheres Package</t>
+        </is>
+      </c>
+      <c r="B184">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>IEC 60601-1-2 Ed. 4.0 b:2014</t>
+        </is>
+      </c>
+      <c r="B185">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>IEC 61400-4:2012</t>
+        </is>
+      </c>
+      <c r="B186">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>IEC Catalog</t>
+        </is>
+      </c>
+      <c r="B187">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>ISO 10377:2013</t>
+        </is>
+      </c>
+      <c r="B188">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>ISO 10393:2013</t>
+        </is>
+      </c>
+      <c r="B189">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>ISO 10474:2013</t>
+        </is>
+      </c>
+      <c r="B190">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>ISO 10993-1:2009</t>
+        </is>
+      </c>
+      <c r="B191">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>ISO 11171:2016</t>
+        </is>
+      </c>
+      <c r="B192">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>ISO 1132-1:2000</t>
+        </is>
+      </c>
+      <c r="B193">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>ISO 1132-2:2001</t>
+        </is>
+      </c>
+      <c r="B194">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>ISO 13485 and ISO/TR 14969 Quality Management Systems Medical Devices Package</t>
+        </is>
+      </c>
+      <c r="B195">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>ISO 13485:2016 Plus Redline</t>
+        </is>
+      </c>
+      <c r="B196">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>ISO 14044:2006</t>
+        </is>
+      </c>
+      <c r="B197">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>ISO 14104:2014</t>
+        </is>
+      </c>
+      <c r="B198">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>ISO 14644-5:2004</t>
+        </is>
+      </c>
+      <c r="B199">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>ISO 14644-7:2004</t>
+        </is>
+      </c>
+      <c r="B200">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>ISO 15189:2012</t>
+        </is>
+      </c>
+      <c r="B201">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>ISO 15378:2017</t>
+        </is>
+      </c>
+      <c r="B202">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>ISO 15496:2018</t>
+        </is>
+      </c>
+      <c r="B203">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>ISO 15744:2002</t>
+        </is>
+      </c>
+      <c r="B204">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>ISO 22000 Food Safety Management Systems Package</t>
+        </is>
+      </c>
+      <c r="B205">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>ISO 24512:2007</t>
+        </is>
+      </c>
+      <c r="B206">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>ISO 25539-1/Amd1:2005</t>
+        </is>
+      </c>
+      <c r="B207">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>ISO 281:2007</t>
+        </is>
+      </c>
+      <c r="B208">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>ISO 2859-1:1999</t>
+        </is>
+      </c>
+      <c r="B209">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>ISO 286 - Geometrical Product Specifications Package</t>
+        </is>
+      </c>
+      <c r="B210">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>ISO 4064-1:2014</t>
+        </is>
+      </c>
+      <c r="B211">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>ISO 4064-2:2014</t>
+        </is>
+      </c>
+      <c r="B212">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>ISO 4288:1996</t>
+        </is>
+      </c>
+      <c r="B213">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>ISO 45001 / ISO 14001 - Environmental and Occupational Health and Safety Set</t>
+        </is>
+      </c>
+      <c r="B214">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>ISO 492:2014</t>
+        </is>
+      </c>
+      <c r="B215">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>ISO 4967:2013</t>
+        </is>
+      </c>
+      <c r="B216">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>ISO 643:2012</t>
+        </is>
+      </c>
+      <c r="B217">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>ISO 683-17:2014</t>
+        </is>
+      </c>
+      <c r="B218">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>ISO 76:2006</t>
+        </is>
+      </c>
+      <c r="B219">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>ISO 811:2018</t>
+        </is>
+      </c>
+      <c r="B220">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>ISO 9000:2015[F]</t>
+        </is>
+      </c>
+      <c r="B221">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>ISO 9001 / ISO 14001 - Quality and Environmental Management Set</t>
+        </is>
+      </c>
+      <c r="B222">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>ISO 9001 / ISO 19011 - Quality Management Auditing Set</t>
+        </is>
+      </c>
+      <c r="B223">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>ISO 9001 Quality Management for Small Businesses Package</t>
+        </is>
+      </c>
+      <c r="B224">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>ISO Guide 30 / Guide 31 / Guide 33 / Guide 34 / Guide 35 Reference Materials Package</t>
+        </is>
+      </c>
+      <c r="B225">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>ISO/IEC 17025:2017 Plus Redline</t>
+        </is>
+      </c>
+      <c r="B226">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>ISO/IEC 20000-1 / ISO/IEC 20000-2 - IT Service Management Systems Package</t>
+        </is>
+      </c>
+      <c r="B227">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>ISO/IEC 27006:2015</t>
+        </is>
+      </c>
+      <c r="B228">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>ISO/IEC Guide 98 - Uncertainty of Measurement Package</t>
+        </is>
+      </c>
+      <c r="B229">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>ISO/IEC Guide 99:2007</t>
+        </is>
+      </c>
+      <c r="B230">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>ISO/TR 14121-2:2012</t>
+        </is>
+      </c>
+      <c r="B231">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>ISO/TS 16281:2008</t>
+        </is>
+      </c>
+      <c r="B232">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>ISO/TS 22002-6:2016</t>
+        </is>
+      </c>
+      <c r="B233">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>JIS G 3445:2016</t>
+        </is>
+      </c>
+      <c r="B234">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>JIS G 4805:2008</t>
+        </is>
+      </c>
+      <c r="B235">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Laboratory Inspection and Testing</t>
+        </is>
+      </c>
+      <c r="B236">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>OVE/ONORM EN ISO/IEC 17050-1:2010</t>
+        </is>
+      </c>
+      <c r="B237">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>SAE AMS 2418H-2011 (SAE AMS2418H-2011)</t>
+        </is>
+      </c>
+      <c r="B238">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>SAE AS 13000-2014 (SAE AS13000-2014)</t>
+        </is>
+      </c>
+      <c r="B239">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>SAE EIA 649-1-2014 (SAE EIA649-1-2014)</t>
+        </is>
+      </c>
+      <c r="B240">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>AAMI TIR41:2011 (R2017)</t>
+        </is>
+      </c>
+      <c r="B241">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>ANSI A108/A118/A136.1:2008</t>
+        </is>
+      </c>
+      <c r="B242">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>ANSI B11.0 / ANSI B11.19 / B11.TR3 Risk Assessment and Safeguarding of Machinery Package</t>
+        </is>
+      </c>
+      <c r="B243">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>ANSI B11.0 / B11.TR6 / ANSI B11.19 - Control Systems and Risk Assessment for Machine Tools Package</t>
+        </is>
+      </c>
+      <c r="B244">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>ANSI B11.20-2004 (R2015)</t>
+        </is>
+      </c>
+      <c r="B245">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>ANSI N14.5-2014</t>
+        </is>
+      </c>
+      <c r="B246">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>ANSI/AAMI/IEC 62304:2006</t>
+        </is>
+      </c>
+      <c r="B247">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>ANSI/AAMI/ISO TIR14969:2004</t>
+        </is>
+      </c>
+      <c r="B248">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>ANSI/AIHA/ASSE Z9.5-2012 / ANSI/ASHRAE 110-1995 - Laboratory Ventilation Package</t>
+        </is>
+      </c>
+      <c r="B249">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>ANSI/ASHRAE Standard 140-2017</t>
+        </is>
+      </c>
+      <c r="B250">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>ANSI/ASIS PAP.1-2012</t>
+        </is>
+      </c>
+      <c r="B251">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>ANSI/ASME B1.2-1983 (R2017)</t>
+        </is>
+      </c>
+      <c r="B252">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>ANSI/ASME B1.3-2007 (R2012)</t>
+        </is>
+      </c>
+      <c r="B253">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>ANSI/ASQ Z1.9-2003 (R2013)</t>
+        </is>
+      </c>
+      <c r="B254">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>ANSI/ASQC M1-1996</t>
+        </is>
+      </c>
+      <c r="B255">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>ANSI/ESD S541-2008</t>
+        </is>
+      </c>
+      <c r="B256">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>ANSI/ISEA Z358.1 / ANSI/ISEA Z87.1 - Eyewash and Eye Protection Package</t>
+        </is>
+      </c>
+      <c r="B257">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>ANSI/PLASTICS B151.1-2017</t>
+        </is>
+      </c>
+      <c r="B258">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>ANSI/SAIA A92.2-2015</t>
+        </is>
+      </c>
+      <c r="B259">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>ANSI/SAIA A92.5-2006 (R2014)</t>
+        </is>
+      </c>
+      <c r="B260">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>AORN MAN-820-2008</t>
+        </is>
+      </c>
+      <c r="B261">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>AORN MAN-835D-2018</t>
+        </is>
+      </c>
+      <c r="B262">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>ASME B30.1-2015</t>
+        </is>
+      </c>
+      <c r="B263">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>ASME B40.100-2013</t>
+        </is>
+      </c>
+      <c r="B264">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>ASQ H1331</t>
+        </is>
+      </c>
+      <c r="B265">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>ASQ/ANSI/ISO 14001:2015</t>
+        </is>
+      </c>
+      <c r="B266">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>ASTM A312/A312M-15</t>
+        </is>
+      </c>
+      <c r="B267">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>ASTM B85/B85M-14</t>
+        </is>
+      </c>
+      <c r="B268">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>ASTM C301-13</t>
+        </is>
+      </c>
+      <c r="B269">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>ASTM C700-13</t>
+        </is>
+      </c>
+      <c r="B270">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>ASTM D4169-16</t>
+        </is>
+      </c>
+      <c r="B271">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>ASTM D5718-13</t>
+        </is>
+      </c>
+      <c r="B272">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>ASTM D882-12</t>
+        </is>
+      </c>
+      <c r="B273">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>ASTM E1444/E1444M-12</t>
+        </is>
+      </c>
+      <c r="B274">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>ASTM F2054/F2054M-13</t>
+        </is>
+      </c>
+      <c r="B275">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>ASTM F2369-04(2016)</t>
+        </is>
+      </c>
+      <c r="B276">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>ASTM F2456-04(2016)</t>
+        </is>
+      </c>
+      <c r="B277">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>AWWA B130-2013</t>
+        </is>
+      </c>
+      <c r="B278">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>AWWA C518-2013</t>
+        </is>
+      </c>
+      <c r="B279">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>AWWA C550-2013</t>
+        </is>
+      </c>
+      <c r="B280">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>AWWA C653-2013</t>
+        </is>
+      </c>
+      <c r="B281">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>AWWA C654-2013</t>
+        </is>
+      </c>
+      <c r="B282">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>BHMA A156.17-2004 (R2010)</t>
+        </is>
+      </c>
+      <c r="B283">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>BS EN 1615:2000</t>
+        </is>
+      </c>
+      <c r="B284">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>BS EN 980 / BS EN 1041 / BS EN ISO 14971 / BS EN ISO 13485 Medical Devices Package</t>
+        </is>
+      </c>
+      <c r="B285">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>BS EN ISO 14046:2016</t>
+        </is>
+      </c>
+      <c r="B286">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>BS OHSAS 18001 / BS OHSAS 18002 / ISO 14001 Occupational Health and Environmental Management Package</t>
+        </is>
+      </c>
+      <c r="B287">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>CGA C-6-2013</t>
+        </is>
+      </c>
+      <c r="B288">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>CGA P-1-2015</t>
+        </is>
+      </c>
+      <c r="B289">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>CGA S-1.1-OSHA</t>
+        </is>
+      </c>
+      <c r="B290">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>CGA S-1.2-2009</t>
+        </is>
+      </c>
+      <c r="B291">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>DIN 75201:2011</t>
+        </is>
+      </c>
+      <c r="B292">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>DIN EN 1706:2013</t>
+        </is>
+      </c>
+      <c r="B293">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>DIN EN ISO 14971:2013</t>
+        </is>
+      </c>
+      <c r="B294">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>DOD-A-24682</t>
+        </is>
+      </c>
+      <c r="B295">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>IEC 60050-426 Ed. 2.0 b:2008</t>
+        </is>
+      </c>
+      <c r="B296">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>IEC 60068-1 Ed. 7.0 b:2013</t>
+        </is>
+      </c>
+      <c r="B297">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>IEC 60068-2-1 Ed. 6.0 b:2007</t>
+        </is>
+      </c>
+      <c r="B298">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>IEC 60068-2-2 Ed. 5.0 b:2007</t>
+        </is>
+      </c>
+      <c r="B299">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>IEC 60068-2-21 Ed. 6.0 en:2006</t>
+        </is>
+      </c>
+      <c r="B300">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>IEC 60068-2-45 Ed. 1.0 b:1980</t>
+        </is>
+      </c>
+      <c r="B301">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>IEC 60068-2-78 Ed. 2.0 b:2012</t>
+        </is>
+      </c>
+      <c r="B302">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>IEC 60601-1 / 60601-1-2 / 60601-1-4 / 60601-1-6 Medical Electrical Equipment Package</t>
+        </is>
+      </c>
+      <c r="B303">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>IEC 60601-2-25 Ed. 2.0 b:2011</t>
+        </is>
+      </c>
+      <c r="B304">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>IEC 60601-2-27 Ed. 3.0 b:2011</t>
+        </is>
+      </c>
+      <c r="B305">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>IEC 60664-1 Ed. 2.0 b:2007</t>
+        </is>
+      </c>
+      <c r="B306">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>IEC 60938-2-1 Ed. 1.0 en:1999</t>
+        </is>
+      </c>
+      <c r="B307">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>IEC 61675-1 Ed. 2.0 b:2013</t>
+        </is>
+      </c>
+      <c r="B308">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>IEC 62304 Amd.1 Ed. 1.0 en:2015</t>
+        </is>
+      </c>
+      <c r="B309">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>IEC 62305-3 Ed. 2.0 b:2010</t>
+        </is>
+      </c>
+      <c r="B310">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>IEC 62366 Amd.1 Ed. 1.0 b:2014</t>
+        </is>
+      </c>
+      <c r="B311">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>IEC GUIDE 115 Ed. 1.0 b:2007</t>
+        </is>
+      </c>
+      <c r="B312">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>IEEE 1003.1-2016</t>
+        </is>
+      </c>
+      <c r="B313">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>IEEE 519-2014</t>
+        </is>
+      </c>
+      <c r="B314">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>IEEE/ISO/IEC 90003-2015</t>
+        </is>
+      </c>
+      <c r="B315">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>IPC 4101E-2017</t>
+        </is>
+      </c>
+      <c r="B316">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>IPC A-610F-2014</t>
+        </is>
+      </c>
+      <c r="B317">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>IPC A-610F-SP-2014</t>
+        </is>
+      </c>
+      <c r="B318">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>ISO 1:2016</t>
+        </is>
+      </c>
+      <c r="B319">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>ISO 10001:2007</t>
+        </is>
+      </c>
+      <c r="B320">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>ISO 10005:2018</t>
+        </is>
+      </c>
+      <c r="B321">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>ISO 10006:2017</t>
+        </is>
+      </c>
+      <c r="B322">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>ISO 10007:2003</t>
+        </is>
+      </c>
+      <c r="B323">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>ISO 10012:2003[S]</t>
+        </is>
+      </c>
+      <c r="B324">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>ISO 10322-1:2016</t>
+        </is>
+      </c>
+      <c r="B325">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>ISO 10322-2:2016</t>
+        </is>
+      </c>
+      <c r="B326">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>ISO 1043-1:2011</t>
+        </is>
+      </c>
+      <c r="B327">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>ISO 1043-2:2011</t>
+        </is>
+      </c>
+      <c r="B328">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>ISO 1043-3:1996</t>
+        </is>
+      </c>
+      <c r="B329">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>ISO 1043-4:1998</t>
+        </is>
+      </c>
+      <c r="B330">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>ISO 1101:2017</t>
+        </is>
+      </c>
+      <c r="B331">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>ISO 11357-1:2016</t>
+        </is>
+      </c>
+      <c r="B332">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>ISO 11469:2000</t>
+        </is>
+      </c>
+      <c r="B333">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>ISO 11978:2017</t>
+        </is>
+      </c>
+      <c r="B334">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>ISO 12219-1:2012</t>
+        </is>
+      </c>
+      <c r="B335">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>ISO 12219-4:2013</t>
+        </is>
+      </c>
+      <c r="B336">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>ISO 12312-1:2013/Amd1:2015</t>
+        </is>
+      </c>
+      <c r="B337">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>ISO 13408-1:2008</t>
+        </is>
+      </c>
+      <c r="B338">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>ISO 13408-1:2008/Amd1:2013</t>
+        </is>
+      </c>
+      <c r="B339">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>ISO 13485 / 14971 / 14969 - Medical Devices Package</t>
+        </is>
+      </c>
+      <c r="B340">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>ISO 13802:2015</t>
+        </is>
+      </c>
+      <c r="B341">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>ISO 13849 - Safety of Machinery Package</t>
+        </is>
+      </c>
+      <c r="B342">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>ISO 13850 / ISO 14119 / ISO 14120 - Safety of Machinery Package</t>
+        </is>
+      </c>
+      <c r="B343">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>ISO 13857:2008</t>
+        </is>
+      </c>
+      <c r="B344">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>ISO 13920:1996</t>
+        </is>
+      </c>
+      <c r="B345">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>ISO 14001 / ISO 14004 / ISO 19011 / ISO 14050 - Environmental Management Package</t>
+        </is>
+      </c>
+      <c r="B346">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>ISO 14001:2004</t>
+        </is>
+      </c>
+      <c r="B347">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>ISO 14001:2015[S]</t>
+        </is>
+      </c>
+      <c r="B348">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>ISO 14050:2009</t>
+        </is>
+      </c>
+      <c r="B349">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>ISO 14698-1:2003</t>
+        </is>
+      </c>
+      <c r="B350">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>ISO 14698-2:2003</t>
+        </is>
+      </c>
+      <c r="B351">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>ISO 15223-1:2012</t>
+        </is>
+      </c>
+      <c r="B352">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>ISO 15223 - Symbols for Medical Devices Package</t>
+        </is>
+      </c>
+      <c r="B353">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>ISO 15489 - Information and Documentation Package</t>
+        </is>
+      </c>
+      <c r="B354">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>ISO 15628:2013</t>
+        </is>
+      </c>
+      <c r="B355">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>ISO 16000-3:2011</t>
+        </is>
+      </c>
+      <c r="B356">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>ISO 16000-6:2011</t>
+        </is>
+      </c>
+      <c r="B357">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>ISO 16269-6:2014</t>
+        </is>
+      </c>
+      <c r="B358">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>ISO 16276-1:2007</t>
+        </is>
+      </c>
+      <c r="B359">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>ISO 1629:2013</t>
+        </is>
+      </c>
+      <c r="B360">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>ISO 17070:2015</t>
+        </is>
+      </c>
+      <c r="B361">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>ISO 17226-1:2008</t>
+        </is>
+      </c>
+      <c r="B362">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>ISO 18064:2014</t>
+        </is>
+      </c>
+      <c r="B363">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>ISO 18369-1:2017</t>
+        </is>
+      </c>
+      <c r="B364">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>ISO 19011:2018 Plus Redline</t>
+        </is>
+      </c>
+      <c r="B365">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>ISO 19069-1:2015</t>
+        </is>
+      </c>
+      <c r="B366">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>ISO 19069-2:2016</t>
+        </is>
+      </c>
+      <c r="B367">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>ISO 2016:1981</t>
+        </is>
+      </c>
+      <c r="B368">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>ISO 21500:2012</t>
+        </is>
+      </c>
+      <c r="B369">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>ISO 22300:2018</t>
+        </is>
+      </c>
+      <c r="B370">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>ISO 22301:2012</t>
+        </is>
+      </c>
+      <c r="B371">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>ISO 26000:2010</t>
+        </is>
+      </c>
+      <c r="B372">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>ISO 2768 - General Tolerances Package</t>
+        </is>
+      </c>
+      <c r="B373">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>ISO 28000:2007</t>
+        </is>
+      </c>
+      <c r="B374">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>ISO 294-1:2017</t>
+        </is>
+      </c>
+      <c r="B375">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>ISO 31000:2018 Plus Redline</t>
+        </is>
+      </c>
+      <c r="B376">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>ISO 3126:2005</t>
+        </is>
+      </c>
+      <c r="B377">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>ISO 3167:2014</t>
+        </is>
+      </c>
+      <c r="B378">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>ISO 34-1:2015</t>
+        </is>
+      </c>
+      <c r="B379">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>ISO 37:2017</t>
+        </is>
+      </c>
+      <c r="B380">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>ISO 4435:2003</t>
+        </is>
+      </c>
+      <c r="B381">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>ISO 4628-3:2003</t>
+        </is>
+      </c>
+      <c r="B382">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>ISO 50001 and ANSI/MSE 50021 - Energy Management Systems Package</t>
+        </is>
+      </c>
+      <c r="B383">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>ISO 50001:2018</t>
+        </is>
+      </c>
+      <c r="B384">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>ISO 527-1:2012</t>
+        </is>
+      </c>
+      <c r="B385">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>ISO 5752:1982</t>
+        </is>
+      </c>
+      <c r="B386">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>ISO 7-1:1994</t>
+        </is>
+      </c>
+      <c r="B387">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>ISO 7186:2011</t>
+        </is>
+      </c>
+      <c r="B388">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>ISO 80079-36:2016</t>
+        </is>
+      </c>
+      <c r="B389">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>ISO 80079-37:2016</t>
+        </is>
+      </c>
+      <c r="B390">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>ISO 80369-7:2016</t>
+        </is>
+      </c>
+      <c r="B391">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>ISO 812:2017</t>
+        </is>
+      </c>
+      <c r="B392">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>ISO 8179-1:2004</t>
+        </is>
+      </c>
+      <c r="B393">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>ISO 8362-4:2011</t>
+        </is>
+      </c>
+      <c r="B394">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>ISO 8536-1:2011</t>
+        </is>
+      </c>
+      <c r="B395">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>ISO 8601:2004</t>
+        </is>
+      </c>
+      <c r="B396">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>ISO 8772:2006</t>
+        </is>
+      </c>
+      <c r="B397">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>ISO 8980-1:2017</t>
+        </is>
+      </c>
+      <c r="B398">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>ISO 8980-2:2017</t>
+        </is>
+      </c>
+      <c r="B399">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>ISO 9000:2015[S]</t>
+        </is>
+      </c>
+      <c r="B400">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>ISO 9001 and ISO 9000 - Quality Management Set</t>
+        </is>
+      </c>
+      <c r="B401">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>ISO 9687:2015</t>
+        </is>
+      </c>
+      <c r="B402">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>ISO Guide 73:2009</t>
+        </is>
+      </c>
+      <c r="B403">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>ISO/IEC - 27001/27002/27005/27006 IT Security Techniques Package</t>
+        </is>
+      </c>
+      <c r="B404">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>ISO/IEC 12207:2008</t>
+        </is>
+      </c>
+      <c r="B405">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>ISO/IEC 20000 - Information Technology Service Management Package</t>
+        </is>
+      </c>
+      <c r="B406">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>ISO/IEC 25010:2011</t>
+        </is>
+      </c>
+      <c r="B407">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>ISO/IEC 27003:2017</t>
+        </is>
+      </c>
+      <c r="B408">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>ISO/IEC 27018:2019 and ISO/IEC 27018:2014 - Public Clouds Transition Set</t>
+        </is>
+      </c>
+      <c r="B409">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>ISO/IEC 7810/Amd2:2012</t>
+        </is>
+      </c>
+      <c r="B410">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>ISO/IEC 7810:2003</t>
+        </is>
+      </c>
+      <c r="B411">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>ISO/IEC 80079-34:2011</t>
+        </is>
+      </c>
+      <c r="B412">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>ISO/IEC/IEEE 15288:2015</t>
+        </is>
+      </c>
+      <c r="B413">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>ISO/IEC/IEEE 24765:2010</t>
+        </is>
+      </c>
+      <c r="B414">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>ISO/IEC/IEEE 90003:2018</t>
+        </is>
+      </c>
+      <c r="B415">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>ISO/TR 14969:2004</t>
+        </is>
+      </c>
+      <c r="B416">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>NEMA 250-2014</t>
+        </is>
+      </c>
+      <c r="B417">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>NFPA 1-2009</t>
+        </is>
+      </c>
+      <c r="B418">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>ONORM EN ISO 19011:2018</t>
+        </is>
+      </c>
+      <c r="B419">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>QPL-85582-5(1)</t>
+        </is>
+      </c>
+      <c r="B420">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>SAE AMS 2750E-2012 (SAE AMS2750E-2012)</t>
+        </is>
+      </c>
+      <c r="B421">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>SAE AS 6500-2014 (SAE AS6500-2014)</t>
+        </is>
+      </c>
+      <c r="B422">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>SAE AS 9100B-2004 (SAE AS9100B-2004)</t>
+        </is>
+      </c>
+      <c r="B423">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>SAE AS 9100D / SAE AS 9101F / SAE AS 9102B - Aviation and Space Quality Management Systems Package</t>
+        </is>
+      </c>
+      <c r="B424">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>SAE AS 9101C-2006 (SAE AS9101C-2006)</t>
+        </is>
+      </c>
+      <c r="B425">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>SAE EIA 748C-2013 (SAE EIA748C-2013)</t>
+        </is>
+      </c>
+      <c r="B426">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Feb 2021/ISO90012015.xlsx
+++ b/Feb 2021/ISO90012015.xlsx
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>882</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>712</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4">
@@ -396,7 +396,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>270</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
@@ -406,7 +406,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>206</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6">
@@ -416,7 +416,7 @@
         </is>
       </c>
       <c r="B6">
-        <v>112</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7">
@@ -426,7 +426,7 @@
         </is>
       </c>
       <c r="B7">
-        <v>85</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8">
@@ -436,27 +436,27 @@
         </is>
       </c>
       <c r="B8">
-        <v>81</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ISO/IEC 17025:2017</t>
+          <t>SAE AS 9100D-2016 (SAE AS9100D-2016)</t>
         </is>
       </c>
       <c r="B9">
-        <v>69</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SAE AS 9100D-2016 (SAE AS9100D-2016)</t>
+          <t>ISO/IEC 17025:2017</t>
         </is>
       </c>
       <c r="B10">
-        <v>69</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
@@ -466,7 +466,7 @@
         </is>
       </c>
       <c r="B11">
-        <v>68</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12">
@@ -476,7 +476,7 @@
         </is>
       </c>
       <c r="B12">
-        <v>63</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13">
@@ -486,7 +486,7 @@
         </is>
       </c>
       <c r="B13">
-        <v>54</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="B14">
-        <v>40</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15">
@@ -506,47 +506,47 @@
         </is>
       </c>
       <c r="B15">
-        <v>40</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ISO/IEC 17025:2005</t>
+          <t>OHSAS 18001:2007</t>
         </is>
       </c>
       <c r="B16">
-        <v>33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ISO/TS 22002-4:2013</t>
+          <t>ISO/IEC 17025:2005</t>
         </is>
       </c>
       <c r="B17">
-        <v>32</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>OHSAS 18001:2007</t>
+          <t>ISO/TS 22002-4:2013</t>
         </is>
       </c>
       <c r="B18">
-        <v>32</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ISO/IEC 27001 and 27002 IT Security Techniques Package</t>
+          <t>ISO 45001:2018</t>
         </is>
       </c>
       <c r="B19">
-        <v>29</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">
@@ -556,157 +556,157 @@
         </is>
       </c>
       <c r="B20">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ISO 31000:2018</t>
+          <t>ISO/IEC 27001 and 27002 IT Security Techniques Package</t>
         </is>
       </c>
       <c r="B21">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ISO 45001:2018</t>
+          <t>ISO 31000:2018</t>
         </is>
       </c>
       <c r="B22">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ISO/TS 9002:2016</t>
+          <t>ISO/TS 16949:2009</t>
         </is>
       </c>
       <c r="B23">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ISO/TS 16949:2009</t>
+          <t>ISO/TS 9002:2016</t>
         </is>
       </c>
       <c r="B24">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ANSI/ASQ Z1.4 and Z1.9 - Sampling Procedures and Tables Package</t>
+          <t>ANSI/ESD S20.20-2014</t>
         </is>
       </c>
       <c r="B25">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ANSI/ESD S20.20-2014</t>
+          <t>ISO 9000:2015 Plus Redline</t>
         </is>
       </c>
       <c r="B26">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ISO 9000:2015 Plus Redline</t>
+          <t>ISO 10012:2003</t>
         </is>
       </c>
       <c r="B27">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ISO 10012:2003</t>
+          <t>ISO 14644-1:2015</t>
         </is>
       </c>
       <c r="B28">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ISO 14644-1:2015</t>
+          <t>ISO 14971:2007</t>
         </is>
       </c>
       <c r="B29">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ISO/IEC 20000-1:2018</t>
+          <t>ANSI/ASQ Z1.4 and Z1.9 - Sampling Procedures and Tables Package</t>
         </is>
       </c>
       <c r="B30">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ISO 14971:2007</t>
+          <t>ISO 15223-1:2016</t>
         </is>
       </c>
       <c r="B31">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ISO 15223-1:2016</t>
+          <t>ISO 17100:2015</t>
         </is>
       </c>
       <c r="B32">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>SAE AS 9100C-2009 (SAE AS9100C-2009)</t>
+          <t>ISO 22000 / ISO/TS 22002-1 - Food Safety Bundle</t>
         </is>
       </c>
       <c r="B33">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ISO 22000 / ISO/TS 22002-1 - Food Safety Bundle</t>
+          <t>ISO 22000:2005</t>
         </is>
       </c>
       <c r="B34">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ISO 22000:2005</t>
+          <t>ISO 9001 for Small Businesses:2010</t>
         </is>
       </c>
       <c r="B35">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36">
@@ -716,17 +716,17 @@
         </is>
       </c>
       <c r="B36">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ISO/IEC 27000:2018</t>
+          <t>ISO/IEC 20000-1:2018</t>
         </is>
       </c>
       <c r="B37">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38">
@@ -736,3887 +736,3887 @@
         </is>
       </c>
       <c r="B38">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ISO 17100:2015</t>
+          <t>SAE AS 9100C-2009 (SAE AS9100C-2009)</t>
         </is>
       </c>
       <c r="B39">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ISO 9001 for Small Businesses:2010</t>
+          <t>SAE AS 9102B-2014 (SAE AS9102B-2014)</t>
         </is>
       </c>
       <c r="B40">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>SAE AS 9102B-2014 (SAE AS9102B-2014)</t>
+          <t>ISO 13485 and ISO 14971 - Medical Devices Package</t>
         </is>
       </c>
       <c r="B41">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ISO 14644-2:2015</t>
+          <t>ISO 14001:2015 Plus Redline</t>
         </is>
       </c>
       <c r="B42">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ISO 9004:2018</t>
+          <t>ISO 14004:2016</t>
         </is>
       </c>
       <c r="B43">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ISO/IEC 17024:2012</t>
+          <t>ISO 14644-2:2015</t>
         </is>
       </c>
       <c r="B44">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ISO/IEC 27002:2013</t>
+          <t>ISO 31000 - Risk Management Package</t>
         </is>
       </c>
       <c r="B45">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ISO/IEC 27005:2018</t>
+          <t>ISO 9001:2015[S]</t>
         </is>
       </c>
       <c r="B46">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ISO 11135:2014</t>
+          <t>ISO 9004:2018</t>
         </is>
       </c>
       <c r="B47">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ISO 13485 and ISO 14971 - Medical Devices Package</t>
+          <t>ISO/IEC 17021-3:2017</t>
         </is>
       </c>
       <c r="B48">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ISO 14004:2016</t>
+          <t>ISO/IEC 17024:2012</t>
         </is>
       </c>
       <c r="B49">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>ISO/TS 29001:2010</t>
+          <t>ISO/IEC 27000:2018</t>
         </is>
       </c>
       <c r="B50">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>ISO 14001:2015 Plus Redline</t>
+          <t>ISO/IEC 27002:2013</t>
         </is>
       </c>
       <c r="B51">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>ISO 19011:2011 Plus Redline</t>
+          <t>ISO/TS 29001:2010</t>
         </is>
       </c>
       <c r="B52">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>ISO 31000 - Risk Management Package</t>
+          <t>AAMI TIR12:2010 (AAMI TIR 12:2010)</t>
         </is>
       </c>
       <c r="B53">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>ISO/IEC 17021-3:2017</t>
+          <t>ANSI Catalog</t>
         </is>
       </c>
       <c r="B54">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>AAMI TIR12:2010 (AAMI TIR 12:2010)</t>
+          <t>ANSI/AAMI/ISO 13485:2016</t>
         </is>
       </c>
       <c r="B55">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>ISO 19011 / ISO 10005 / ISO 10015 / ISO/TR 10013 - Quality Management Systems Package</t>
+          <t>ANSI/ASQ Z1.4-2003 (R2013)</t>
         </is>
       </c>
       <c r="B56">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>ISO 22000:2018</t>
+          <t>ASTM F2575-14</t>
         </is>
       </c>
       <c r="B57">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>ISO 9001:2015[S]</t>
+          <t>BS EN ISO 14971:2012</t>
         </is>
       </c>
       <c r="B58">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>ISO 10007:2017</t>
+          <t>BS EN ISO/IEC 27001:2017</t>
         </is>
       </c>
       <c r="B59">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>ISO 13528:2015</t>
+          <t>BS OHSAS 18001:2007</t>
         </is>
       </c>
       <c r="B60">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>ISO 14644-1 and ISO 14644-2 - Classification of Air Cleanliness Package</t>
+          <t>IEC 60079-0 Ed. 7.0 b:2017</t>
         </is>
       </c>
       <c r="B61">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>ISO 15378:2015</t>
+          <t>IEC 61010-1 Ed. 3.0 b:2010</t>
         </is>
       </c>
       <c r="B62">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>ISO 9000:2005</t>
+          <t>ISO 10005:2005</t>
         </is>
       </c>
       <c r="B63">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>ISO/IEC 17020:2012</t>
+          <t>ISO 10006:2003</t>
         </is>
       </c>
       <c r="B64">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>ISO/TR 31004:2013</t>
+          <t>ISO 10007:2017</t>
         </is>
       </c>
       <c r="B65">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>SAE AS 9110B-2012 (SAE AS9110B-2012)</t>
+          <t>ISO 11135:2014</t>
         </is>
       </c>
       <c r="B66">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>SAE AS 9120A-2009 (SAE AS9120A-2009)</t>
+          <t>ISO 12100:2010</t>
         </is>
       </c>
       <c r="B67">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>ASTM F2575-14</t>
+          <t>ISO 13485:2016 - Medical Devices - A Practical Guide</t>
         </is>
       </c>
       <c r="B68">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>BS EN ISO 14971:2012</t>
+          <t>ISO 13528:2015</t>
         </is>
       </c>
       <c r="B69">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>BS EN ISO/IEC 27001:2017</t>
+          <t>ISO 14644-1 / ISO 14644-2 / ISO 14644-3 / ISO 14644-4 - Cleanrooms and Controlled Environments Package</t>
         </is>
       </c>
       <c r="B70">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>BS OHSAS 18001:2007</t>
+          <t>ISO 14644-1 and ISO 14644-2 - Classification of Air Cleanliness Package</t>
         </is>
       </c>
       <c r="B71">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>IEC 61010-1 Ed. 3.0 b:2010</t>
+          <t>ISO 15378:2015</t>
         </is>
       </c>
       <c r="B72">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>ISO 10005:2005</t>
+          <t>ISO 18091:2014</t>
         </is>
       </c>
       <c r="B73">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>ISO 12100:2010</t>
+          <t>ISO 19011 / ISO 10005 / ISO 10015 / ISO/TR 10013 - Quality Management Systems Package</t>
         </is>
       </c>
       <c r="B74">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>ISO 14644-1 / ISO 14644-2 / ISO 14644-3 / ISO 14644-4 - Cleanrooms and Controlled Environments Package</t>
+          <t>ISO 19011:2011 Plus Redline</t>
         </is>
       </c>
       <c r="B75">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>ISO 18091:2014</t>
+          <t>ISO 19600:2014</t>
         </is>
       </c>
       <c r="B76">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>ISO 19600:2014</t>
+          <t>ISO 22000:2018</t>
         </is>
       </c>
       <c r="B77">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>ISO 31000 / ISO Guide 73 / ISO/IEC 31010 Risk Management Package</t>
+          <t>ISO 22716:2007</t>
         </is>
       </c>
       <c r="B78">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>ISO 55000:2014</t>
+          <t>ISO 26262 - Road Vehicles Functional Safety Package</t>
         </is>
       </c>
       <c r="B79">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>ISO/IEC 27017:2015</t>
+          <t>ISO 31000 / ISO Guide 73 / ISO/IEC 31010 Risk Management Package</t>
         </is>
       </c>
       <c r="B80">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>OHSAS 18002:2008</t>
+          <t>ISO 55000:2014</t>
         </is>
       </c>
       <c r="B81">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>AAMI TIR30:2011 (R2016)</t>
+          <t>ISO 9000:2005</t>
         </is>
       </c>
       <c r="B82">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>ANSI B11.22-2002 (R2012)</t>
+          <t>ISO/IEC 17020:2012</t>
         </is>
       </c>
       <c r="B83">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>ANSI B11.23-2002 (R2012)</t>
+          <t>ISO/IEC 17021-1:2015</t>
         </is>
       </c>
       <c r="B84">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>ANSI Catalog</t>
+          <t>ISO/IEC 27005:2018</t>
         </is>
       </c>
       <c r="B85">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>ANSI Z97.1-2015</t>
+          <t>ISO/IEC 27017:2015</t>
         </is>
       </c>
       <c r="B86">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>ANSI/AAMI ST58:2013 (R2018)</t>
+          <t>ISO/TR 31004:2013</t>
         </is>
       </c>
       <c r="B87">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>ANSI/AAMI ST72:2011(R2016)</t>
+          <t>OHSAS 18002:2008</t>
         </is>
       </c>
       <c r="B88">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>ANSI/AAMI ST79:2017</t>
+          <t>SAE AS 5553B-2016 (SAE AS5553B-2016)</t>
         </is>
       </c>
       <c r="B89">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>ANSI/AAMI/ISO 10993-17:2002 (R2012)</t>
+          <t>SAE AS 9110B-2012 (SAE AS9110B-2012)</t>
         </is>
       </c>
       <c r="B90">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>ANSI/AAMI/ISO 13485:2016</t>
+          <t>SAE AS 9120A-2009 (SAE AS9120A-2009)</t>
         </is>
       </c>
       <c r="B91">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>ANSI/ASQ Z1.4-2003 (R2013)</t>
+          <t>AAMI TIR30:2011 (R2016)</t>
         </is>
       </c>
       <c r="B92">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>ANSI/ISO 12100:2012</t>
+          <t>AAMI TIR41:2011 (R2017)</t>
         </is>
       </c>
       <c r="B93">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>ASTM D1042-12(2017)</t>
+          <t>AIAG MSA-4:2010</t>
         </is>
       </c>
       <c r="B94">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>ASTM D5592-94(2018)</t>
+          <t>ANSI A10.11-1989 (R1998)</t>
         </is>
       </c>
       <c r="B95">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>ASTM D570-98(2018)</t>
+          <t>ANSI A108/A118/A136.1:2008</t>
         </is>
       </c>
       <c r="B96">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>ASTM E1941-10(2016)</t>
+          <t>ANSI B11.0 / ANSI B11.19 / B11.TR3 Risk Assessment and Safeguarding of Machinery Package</t>
         </is>
       </c>
       <c r="B97">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>ASTM E793-06(2018)</t>
+          <t>ANSI B11.0 / B11.TR6 / ANSI B11.19 - Control Systems and Risk Assessment for Machine Tools Package</t>
         </is>
       </c>
       <c r="B98">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>ASTM E794-06(2018)</t>
+          <t>ANSI B11.20-2004 (R2015)</t>
         </is>
       </c>
       <c r="B99">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>BS EN 1041:2008+A1:2013</t>
+          <t>ANSI B11.22-2002 (R2012)</t>
         </is>
       </c>
       <c r="B100">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>BS EN 556-1:2001</t>
+          <t>ANSI B11.23-2002 (R2012)</t>
         </is>
       </c>
       <c r="B101">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>IEC 60079-0 Ed. 7.0 b:2017</t>
+          <t>ANSI B152.2-1982</t>
         </is>
       </c>
       <c r="B102">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>IEC 60812 Ed. 3.0 b:2018</t>
+          <t>ANSI MH16.1-2012</t>
         </is>
       </c>
       <c r="B103">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>ISO 10002:2018</t>
+          <t>ANSI N14.5-2014</t>
         </is>
       </c>
       <c r="B104">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>ISO 10006:2003</t>
+          <t>ANSI Z97.1-2015</t>
         </is>
       </c>
       <c r="B105">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>ISO 10993-1:2018</t>
+          <t>ANSI/AAMI ST58:2013 (R2018)</t>
         </is>
       </c>
       <c r="B106">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>ISO 10993-16:2017</t>
+          <t>ANSI/AAMI ST72:2011(R2016)</t>
         </is>
       </c>
       <c r="B107">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>ISO 10993-4:2017</t>
+          <t>ANSI/AAMI ST79:2017</t>
         </is>
       </c>
       <c r="B108">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>ISO 11607-1:2019</t>
+          <t>ANSI/AAMI/IEC 62304:2006</t>
         </is>
       </c>
       <c r="B109">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>ISO 11607-2:2019</t>
+          <t>ANSI/AAMI/ISO 10993-17:2002 (R2012)</t>
         </is>
       </c>
       <c r="B110">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>ISO 11737-1:2018</t>
+          <t>ANSI/AAMI/ISO TIR14969:2004</t>
         </is>
       </c>
       <c r="B111">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>ISO 13485 / IEC 62304 / ISO 14971 - Medical Devices Package</t>
+          <t>ANSI/AGMA 2000-A88</t>
         </is>
       </c>
       <c r="B112">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>ISO 13485:2016 - Medical Devices - A Practical Guide</t>
+          <t>ANSI/AIHA/ASSE Z9.5-2012 / ANSI/ASHRAE 110-1995 - Laboratory Ventilation Package</t>
         </is>
       </c>
       <c r="B113">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>ISO 13779-3:2018</t>
+          <t>ANSI/AMCA 230-15</t>
         </is>
       </c>
       <c r="B114">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>ISO 14184-1:2011</t>
+          <t>ANSI/ASHRAE Standard 140-2017</t>
         </is>
       </c>
       <c r="B115">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>ISO 14184-2:2011</t>
+          <t>ANSI/ASIS PAP.1-2012</t>
         </is>
       </c>
       <c r="B116">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>ISO 15883-1:2006</t>
+          <t>ANSI/ASME B1.2-1983 (R2017)</t>
         </is>
       </c>
       <c r="B117">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>ISO 17664:2017</t>
+          <t>ANSI/ASME B1.3-2007 (R2012)</t>
         </is>
       </c>
       <c r="B118">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>ISO 17665-1:2006</t>
+          <t>ANSI/ASME Y14.24-2012</t>
         </is>
       </c>
       <c r="B119">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>ISO 22005:2007</t>
+          <t>ANSI/ASQ Z1.9-2003 (R2013)</t>
         </is>
       </c>
       <c r="B120">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>ISO 22300 / ISO 22301 / ISO 22313 - Societal Security Business Continuity Package</t>
+          <t>ANSI/ASQC M1-1996</t>
         </is>
       </c>
       <c r="B121">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>ISO 22716:2007</t>
+          <t>ANSI/ASSE Z490.1-2016</t>
         </is>
       </c>
       <c r="B122">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>ISO 26262 - Road Vehicles Functional Safety Package</t>
+          <t>ANSI/ESD S541-2008</t>
         </is>
       </c>
       <c r="B123">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>ISO 60:1977</t>
+          <t>ANSI/ESD S6.1-2014</t>
         </is>
       </c>
       <c r="B124">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>ISO 7153-1:2016</t>
+          <t>ANSI/HI 14.6-2011</t>
         </is>
       </c>
       <c r="B125">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>ISO/IEC 17021-1:2015</t>
+          <t>ANSI/ISEA Z358.1 / ANSI/ISEA Z87.1 - Eyewash and Eye Protection Package</t>
         </is>
       </c>
       <c r="B126">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>ISO/IEC 27018 / ISO/IEC 29100 / ISO/IEC 27001 - Public Clouds Privacy Framework Package</t>
+          <t>ANSI/ISO 12100:2012</t>
         </is>
       </c>
       <c r="B127">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>ISO/IEC 27018:2019</t>
+          <t>ANSI/PLASTICS B151.1-2017</t>
         </is>
       </c>
       <c r="B128">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>ISO/IEC 80079-34:2018</t>
+          <t>ANSI/SAIA A92.2-2015</t>
         </is>
       </c>
       <c r="B129">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>ISO/TR 10013:2001</t>
+          <t>ANSI/SAIA A92.5-2006 (R2014)</t>
         </is>
       </c>
       <c r="B130">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>ISO/TS 17665-2:2009</t>
+          <t>AORN MAN-820-2008</t>
         </is>
       </c>
       <c r="B131">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>ISO/TS 17665-3:2013</t>
+          <t>AORN MAN-835D-2018</t>
         </is>
       </c>
       <c r="B132">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>ISO/TS 22002-2:2013</t>
+          <t>AQAP-2110 ED.D</t>
         </is>
       </c>
       <c r="B133">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>SAE AS 5553B-2016 (SAE AS5553B-2016)</t>
+          <t>ASME A17.1-2013/CSA B44-13</t>
         </is>
       </c>
       <c r="B134">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>AIAG MSA-4:2010</t>
+          <t>ASME B30.1-2015</t>
         </is>
       </c>
       <c r="B135">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>ANSI/ASME Y14.24-2012</t>
+          <t>ASME B31.3-2014</t>
         </is>
       </c>
       <c r="B136">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>ANSI/HI 14.6-2011</t>
+          <t>ASME B40.100-2013</t>
         </is>
       </c>
       <c r="B137">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>ASME Y14.34-2013</t>
+          <t>ASME B46.1 / ANSI/ASME B1.2 - Surface Texture and Gaging for Screw Threads Package</t>
         </is>
       </c>
       <c r="B138">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>ASME Y14.35-2014</t>
+          <t>ASME Y14.34-2013</t>
         </is>
       </c>
       <c r="B139">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>ASME Y14.38-2007 (R2013)</t>
+          <t>ASME Y14.35-2014</t>
         </is>
       </c>
       <c r="B140">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>ASME Y14.5 and ASME Y14.100 Dimensioning Tolerancing and Engineering Drawing Practices Package</t>
+          <t>ASME Y14.38-2007 (R2013)</t>
         </is>
       </c>
       <c r="B141">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>ICC IBC-2018</t>
+          <t>ASME Y14.5 and ASME Y14.100 Dimensioning Tolerancing and Engineering Drawing Practices Package</t>
         </is>
       </c>
       <c r="B142">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>IEC 82304-1 Ed. 1.0 b:2016</t>
+          <t>ASQ H1331</t>
         </is>
       </c>
       <c r="B143">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>SAE AMS 3302H-2011 (SAE AMS3302H-2011)</t>
+          <t>ASQ/ANSI/ISO 14001:2015</t>
         </is>
       </c>
       <c r="B144">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>SAE AS 9104/1-2012 (SAE AS9104/1-2012)</t>
+          <t>ASTM A29/A29M-15</t>
         </is>
       </c>
       <c r="B145">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>SS-EN ISO 14644-8:2013</t>
+          <t>ASTM A295/A295M-14</t>
         </is>
       </c>
       <c r="B146">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>ANSI A10.11-1989 (R1998)</t>
+          <t>ASTM A312/A312M-15</t>
         </is>
       </c>
       <c r="B147">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>ANSI B152.2-1982</t>
+          <t>ASTM A484/A484M-16</t>
         </is>
       </c>
       <c r="B148">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>ANSI MH16.1-2012</t>
+          <t>ASTM A534-14</t>
         </is>
       </c>
       <c r="B149">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>ANSI/AGMA 2000-A88</t>
+          <t>ASTM A733-15</t>
         </is>
       </c>
       <c r="B150">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>ANSI/AMCA 230-15</t>
+          <t>ASTM A866-14</t>
         </is>
       </c>
       <c r="B151">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>ANSI/ASSE Z490.1-2016</t>
+          <t>ASTM B117-11</t>
         </is>
       </c>
       <c r="B152">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>ANSI/ESD S6.1-2014</t>
+          <t>ASTM B687-99(2011)</t>
         </is>
       </c>
       <c r="B153">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>AQAP-2110 ED.D</t>
+          <t>ASTM B85/B85M-14</t>
         </is>
       </c>
       <c r="B154">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>ASME A17.1-2013/CSA B44-13</t>
+          <t>ASTM C301-13</t>
         </is>
       </c>
       <c r="B155">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>ASME B31.3-2014</t>
+          <t>ASTM C700-13</t>
         </is>
       </c>
       <c r="B156">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>ASME B46.1 / ANSI/ASME B1.2 - Surface Texture and Gaging for Screw Threads Package</t>
+          <t>ASTM D1042-12(2017)</t>
         </is>
       </c>
       <c r="B157">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>ASTM A29/A29M-15</t>
+          <t>ASTM D257-14</t>
         </is>
       </c>
       <c r="B158">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>ASTM A295/A295M-14</t>
+          <t>ASTM D4169-16</t>
         </is>
       </c>
       <c r="B159">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>ASTM A484/A484M-16</t>
+          <t>ASTM D5592-94(2018)</t>
         </is>
       </c>
       <c r="B160">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>ASTM A534-14</t>
+          <t>ASTM D570-98(2018)</t>
         </is>
       </c>
       <c r="B161">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>ASTM A733-15</t>
+          <t>ASTM D5718-13</t>
         </is>
       </c>
       <c r="B162">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>ASTM A866-14</t>
+          <t>ASTM D882-12</t>
         </is>
       </c>
       <c r="B163">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>ASTM B117-11</t>
+          <t>ASTM E1444/E1444M-12</t>
         </is>
       </c>
       <c r="B164">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>ASTM B687-99(2011)</t>
+          <t>ASTM E1941-10(2016)</t>
         </is>
       </c>
       <c r="B165">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>ASTM D257-14</t>
+          <t>ASTM E2500-13</t>
         </is>
       </c>
       <c r="B166">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>ASTM E2500-13</t>
+          <t>ASTM E793-06(2018)</t>
         </is>
       </c>
       <c r="B167">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>ASTM F2413-11</t>
+          <t>ASTM E794-06(2018)</t>
         </is>
       </c>
       <c r="B168">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>ASTM F438-15</t>
+          <t>ASTM F2054/F2054M-13</t>
         </is>
       </c>
       <c r="B169">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>ASTM F439-13</t>
+          <t>ASTM F2369-04(2016)</t>
         </is>
       </c>
       <c r="B170">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>BS EN ISO 11607-1:2017</t>
+          <t>ASTM F2413-11</t>
         </is>
       </c>
       <c r="B171">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>BS EN ISO 11607-2:2017</t>
+          <t>ASTM F2456-04(2016)</t>
         </is>
       </c>
       <c r="B172">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>BS EN ISO 23640:2015</t>
+          <t>ASTM F438-15</t>
         </is>
       </c>
       <c r="B173">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>BS EN ISO 4787:2011</t>
+          <t>ASTM F439-13</t>
         </is>
       </c>
       <c r="B174">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>BS ISO 31000:2009</t>
+          <t>AWWA B130-2013</t>
         </is>
       </c>
       <c r="B175">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>CLSI GP41-Ed7</t>
+          <t>AWWA C518-2013</t>
         </is>
       </c>
       <c r="B176">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>CSA Z195.1-2002</t>
+          <t>AWWA C550-2013</t>
         </is>
       </c>
       <c r="B177">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>CSA Z334-2014</t>
+          <t>AWWA C653-2013</t>
         </is>
       </c>
       <c r="B178">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>DIN EN 13612:2002</t>
+          <t>AWWA C654-2013</t>
         </is>
       </c>
       <c r="B179">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>DIN EN 13641:2002</t>
+          <t>BHMA A156.17-2004 (R2010)</t>
         </is>
       </c>
       <c r="B180">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>DIN EN ISO 23640:2015</t>
+          <t>BS EN 1041:2008+A1:2013</t>
         </is>
       </c>
       <c r="B181">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>IEC 31010:2009</t>
+          <t>BS EN 1615:2000</t>
         </is>
       </c>
       <c r="B182">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>IEC 60068-2-30 Ed. 3.0 b:2005</t>
+          <t>BS EN 556-1:2001</t>
         </is>
       </c>
       <c r="B183">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>IEC 60079-0 / IEC 60079-1 / IEC 60079-11 - Explosive Atmospheres Package</t>
+          <t>BS EN 980 / BS EN 1041 / BS EN ISO 14971 / BS EN ISO 13485 Medical Devices Package</t>
         </is>
       </c>
       <c r="B184">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>IEC 60601-1-2 Ed. 4.0 b:2014</t>
+          <t>BS EN ISO 11607-1:2017</t>
         </is>
       </c>
       <c r="B185">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>IEC 61400-4:2012</t>
+          <t>BS EN ISO 11607-2:2017</t>
         </is>
       </c>
       <c r="B186">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>IEC Catalog</t>
+          <t>BS EN ISO 14046:2016</t>
         </is>
       </c>
       <c r="B187">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>ISO 10377:2013</t>
+          <t>BS EN ISO 23640:2015</t>
         </is>
       </c>
       <c r="B188">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>ISO 10393:2013</t>
+          <t>BS EN ISO 4787:2011</t>
         </is>
       </c>
       <c r="B189">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>ISO 10474:2013</t>
+          <t>BS ISO 31000:2009</t>
         </is>
       </c>
       <c r="B190">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>ISO 10993-1:2009</t>
+          <t>BS OHSAS 18001 / BS OHSAS 18002 / ISO 14001 Occupational Health and Environmental Management Package</t>
         </is>
       </c>
       <c r="B191">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>ISO 11171:2016</t>
+          <t>CGA C-6-2013</t>
         </is>
       </c>
       <c r="B192">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>ISO 1132-1:2000</t>
+          <t>CGA P-1-2015</t>
         </is>
       </c>
       <c r="B193">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>ISO 1132-2:2001</t>
+          <t>CGA S-1.1-OSHA</t>
         </is>
       </c>
       <c r="B194">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>ISO 13485 and ISO/TR 14969 Quality Management Systems Medical Devices Package</t>
+          <t>CGA S-1.2-2009</t>
         </is>
       </c>
       <c r="B195">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>ISO 13485:2016 Plus Redline</t>
+          <t>CLSI GP41-Ed7</t>
         </is>
       </c>
       <c r="B196">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>ISO 14044:2006</t>
+          <t>CSA Z195.1-2002</t>
         </is>
       </c>
       <c r="B197">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>ISO 14104:2014</t>
+          <t>CSA Z334-2014</t>
         </is>
       </c>
       <c r="B198">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>ISO 14644-5:2004</t>
+          <t>DIN 75201:2011</t>
         </is>
       </c>
       <c r="B199">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>ISO 14644-7:2004</t>
+          <t>DIN EN 13612:2002</t>
         </is>
       </c>
       <c r="B200">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>ISO 15189:2012</t>
+          <t>DIN EN 13641:2002</t>
         </is>
       </c>
       <c r="B201">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>ISO 15378:2017</t>
+          <t>DIN EN 1706:2013</t>
         </is>
       </c>
       <c r="B202">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>ISO 15496:2018</t>
+          <t>DIN EN ISO 14971:2013</t>
         </is>
       </c>
       <c r="B203">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>ISO 15744:2002</t>
+          <t>DIN EN ISO 23640:2015</t>
         </is>
       </c>
       <c r="B204">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>ISO 22000 Food Safety Management Systems Package</t>
+          <t>DOD-A-24682</t>
         </is>
       </c>
       <c r="B205">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>ISO 24512:2007</t>
+          <t>ICC IBC-2018</t>
         </is>
       </c>
       <c r="B206">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>ISO 25539-1/Amd1:2005</t>
+          <t>IEC 31010:2009</t>
         </is>
       </c>
       <c r="B207">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>ISO 281:2007</t>
+          <t>IEC 60050-426 Ed. 2.0 b:2008</t>
         </is>
       </c>
       <c r="B208">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>ISO 2859-1:1999</t>
+          <t>IEC 60068-1 Ed. 7.0 b:2013</t>
         </is>
       </c>
       <c r="B209">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>ISO 286 - Geometrical Product Specifications Package</t>
+          <t>IEC 60068-2-1 Ed. 6.0 b:2007</t>
         </is>
       </c>
       <c r="B210">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>ISO 4064-1:2014</t>
+          <t>IEC 60068-2-2 Ed. 5.0 b:2007</t>
         </is>
       </c>
       <c r="B211">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>ISO 4064-2:2014</t>
+          <t>IEC 60068-2-21 Ed. 6.0 en:2006</t>
         </is>
       </c>
       <c r="B212">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>ISO 4288:1996</t>
+          <t>IEC 60068-2-30 Ed. 3.0 b:2005</t>
         </is>
       </c>
       <c r="B213">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>ISO 45001 / ISO 14001 - Environmental and Occupational Health and Safety Set</t>
+          <t>IEC 60068-2-45 Ed. 1.0 b:1980</t>
         </is>
       </c>
       <c r="B214">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>ISO 492:2014</t>
+          <t>IEC 60068-2-78 Ed. 2.0 b:2012</t>
         </is>
       </c>
       <c r="B215">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>ISO 4967:2013</t>
+          <t>IEC 60079-0 / IEC 60079-1 / IEC 60079-11 - Explosive Atmospheres Package</t>
         </is>
       </c>
       <c r="B216">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>ISO 643:2012</t>
+          <t>IEC 60601-1-2 Ed. 4.0 b:2014</t>
         </is>
       </c>
       <c r="B217">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>ISO 683-17:2014</t>
+          <t>IEC 60601-1 / 60601-1-2 / 60601-1-4 / 60601-1-6 Medical Electrical Equipment Package</t>
         </is>
       </c>
       <c r="B218">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>ISO 76:2006</t>
+          <t>IEC 60601-2-25 Ed. 2.0 b:2011</t>
         </is>
       </c>
       <c r="B219">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>ISO 811:2018</t>
+          <t>IEC 60601-2-27 Ed. 3.0 b:2011</t>
         </is>
       </c>
       <c r="B220">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>ISO 9000:2015[F]</t>
+          <t>IEC 60664-1 Ed. 2.0 b:2007</t>
         </is>
       </c>
       <c r="B221">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>ISO 9001 / ISO 14001 - Quality and Environmental Management Set</t>
+          <t>IEC 60812 Ed. 3.0 b:2018</t>
         </is>
       </c>
       <c r="B222">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>ISO 9001 / ISO 19011 - Quality Management Auditing Set</t>
+          <t>IEC 60938-2-1 Ed. 1.0 en:1999</t>
         </is>
       </c>
       <c r="B223">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>ISO 9001 Quality Management for Small Businesses Package</t>
+          <t>IEC 61400-4:2012</t>
         </is>
       </c>
       <c r="B224">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>ISO Guide 30 / Guide 31 / Guide 33 / Guide 34 / Guide 35 Reference Materials Package</t>
+          <t>IEC 61675-1 Ed. 2.0 b:2013</t>
         </is>
       </c>
       <c r="B225">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>ISO/IEC 17025:2017 Plus Redline</t>
+          <t>IEC 62304 Amd.1 Ed. 1.0 en:2015</t>
         </is>
       </c>
       <c r="B226">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>ISO/IEC 20000-1 / ISO/IEC 20000-2 - IT Service Management Systems Package</t>
+          <t>IEC 62305-3 Ed. 2.0 b:2010</t>
         </is>
       </c>
       <c r="B227">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>ISO/IEC 27006:2015</t>
+          <t>IEC 62366 Amd.1 Ed. 1.0 b:2014</t>
         </is>
       </c>
       <c r="B228">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>ISO/IEC Guide 98 - Uncertainty of Measurement Package</t>
+          <t>IEC 82304-1 Ed. 1.0 b:2016</t>
         </is>
       </c>
       <c r="B229">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>ISO/IEC Guide 99:2007</t>
+          <t>IEC Catalog</t>
         </is>
       </c>
       <c r="B230">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>ISO/TR 14121-2:2012</t>
+          <t>IEC GUIDE 115 Ed. 1.0 b:2007</t>
         </is>
       </c>
       <c r="B231">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>ISO/TS 16281:2008</t>
+          <t>IEEE 1003.1-2016</t>
         </is>
       </c>
       <c r="B232">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>ISO/TS 22002-6:2016</t>
+          <t>IEEE 519-2014</t>
         </is>
       </c>
       <c r="B233">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>JIS G 3445:2016</t>
+          <t>IEEE/ISO/IEC 90003-2015</t>
         </is>
       </c>
       <c r="B234">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>JIS G 4805:2008</t>
+          <t>IPC 4101E-2017</t>
         </is>
       </c>
       <c r="B235">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Laboratory Inspection and Testing</t>
+          <t>IPC A-610F-2014</t>
         </is>
       </c>
       <c r="B236">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>OVE/ONORM EN ISO/IEC 17050-1:2010</t>
+          <t>IPC A-610F-SP-2014</t>
         </is>
       </c>
       <c r="B237">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>SAE AMS 2418H-2011 (SAE AMS2418H-2011)</t>
+          <t>ISO 1:2016</t>
         </is>
       </c>
       <c r="B238">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>SAE AS 13000-2014 (SAE AS13000-2014)</t>
+          <t>ISO 10001:2007</t>
         </is>
       </c>
       <c r="B239">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>SAE EIA 649-1-2014 (SAE EIA649-1-2014)</t>
+          <t>ISO 10002:2018</t>
         </is>
       </c>
       <c r="B240">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>AAMI TIR41:2011 (R2017)</t>
+          <t>ISO 10005:2018</t>
         </is>
       </c>
       <c r="B241">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>ANSI A108/A118/A136.1:2008</t>
+          <t>ISO 10006:2017</t>
         </is>
       </c>
       <c r="B242">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>ANSI B11.0 / ANSI B11.19 / B11.TR3 Risk Assessment and Safeguarding of Machinery Package</t>
+          <t>ISO 10007:2003</t>
         </is>
       </c>
       <c r="B243">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>ANSI B11.0 / B11.TR6 / ANSI B11.19 - Control Systems and Risk Assessment for Machine Tools Package</t>
+          <t>ISO 10012:2003[S]</t>
         </is>
       </c>
       <c r="B244">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>ANSI B11.20-2004 (R2015)</t>
+          <t>ISO 10322-1:2016</t>
         </is>
       </c>
       <c r="B245">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>ANSI N14.5-2014</t>
+          <t>ISO 10322-2:2016</t>
         </is>
       </c>
       <c r="B246">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>ANSI/AAMI/IEC 62304:2006</t>
+          <t>ISO 10377:2013</t>
         </is>
       </c>
       <c r="B247">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>ANSI/AAMI/ISO TIR14969:2004</t>
+          <t>ISO 10393:2013</t>
         </is>
       </c>
       <c r="B248">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>ANSI/AIHA/ASSE Z9.5-2012 / ANSI/ASHRAE 110-1995 - Laboratory Ventilation Package</t>
+          <t>ISO 1043-1:2011</t>
         </is>
       </c>
       <c r="B249">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>ANSI/ASHRAE Standard 140-2017</t>
+          <t>ISO 1043-2:2011</t>
         </is>
       </c>
       <c r="B250">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>ANSI/ASIS PAP.1-2012</t>
+          <t>ISO 1043-3:1996</t>
         </is>
       </c>
       <c r="B251">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>ANSI/ASME B1.2-1983 (R2017)</t>
+          <t>ISO 1043-4:1998</t>
         </is>
       </c>
       <c r="B252">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>ANSI/ASME B1.3-2007 (R2012)</t>
+          <t>ISO 10474:2013</t>
         </is>
       </c>
       <c r="B253">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>ANSI/ASQ Z1.9-2003 (R2013)</t>
+          <t>ISO 10993-1:2009</t>
         </is>
       </c>
       <c r="B254">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>ANSI/ASQC M1-1996</t>
+          <t>ISO 10993-1:2018</t>
         </is>
       </c>
       <c r="B255">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>ANSI/ESD S541-2008</t>
+          <t>ISO 10993-16:2017</t>
         </is>
       </c>
       <c r="B256">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>ANSI/ISEA Z358.1 / ANSI/ISEA Z87.1 - Eyewash and Eye Protection Package</t>
+          <t>ISO 10993-4:2017</t>
         </is>
       </c>
       <c r="B257">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>ANSI/PLASTICS B151.1-2017</t>
+          <t>ISO 1101:2017</t>
         </is>
       </c>
       <c r="B258">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>ANSI/SAIA A92.2-2015</t>
+          <t>ISO 11171:2016</t>
         </is>
       </c>
       <c r="B259">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>ANSI/SAIA A92.5-2006 (R2014)</t>
+          <t>ISO 1132-1:2000</t>
         </is>
       </c>
       <c r="B260">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>AORN MAN-820-2008</t>
+          <t>ISO 1132-2:2001</t>
         </is>
       </c>
       <c r="B261">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>AORN MAN-835D-2018</t>
+          <t>ISO 11357-1:2016</t>
         </is>
       </c>
       <c r="B262">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>ASME B30.1-2015</t>
+          <t>ISO 11469:2000</t>
         </is>
       </c>
       <c r="B263">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>ASME B40.100-2013</t>
+          <t>ISO 11607-1:2019</t>
         </is>
       </c>
       <c r="B264">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>ASQ H1331</t>
+          <t>ISO 11607-2:2019</t>
         </is>
       </c>
       <c r="B265">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>ASQ/ANSI/ISO 14001:2015</t>
+          <t>ISO 11737-1:2018</t>
         </is>
       </c>
       <c r="B266">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>ASTM A312/A312M-15</t>
+          <t>ISO 11978:2017</t>
         </is>
       </c>
       <c r="B267">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>ASTM B85/B85M-14</t>
+          <t>ISO 12219-1:2012</t>
         </is>
       </c>
       <c r="B268">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>ASTM C301-13</t>
+          <t>ISO 12219-4:2013</t>
         </is>
       </c>
       <c r="B269">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>ASTM C700-13</t>
+          <t>ISO 12312-1:2013/Amd1:2015</t>
         </is>
       </c>
       <c r="B270">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>ASTM D4169-16</t>
+          <t>ISO 13408-1:2008</t>
         </is>
       </c>
       <c r="B271">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>ASTM D5718-13</t>
+          <t>ISO 13408-1:2008/Amd1:2013</t>
         </is>
       </c>
       <c r="B272">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>ASTM D882-12</t>
+          <t>ISO 13485 / 14971 / 14969 - Medical Devices Package</t>
         </is>
       </c>
       <c r="B273">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>ASTM E1444/E1444M-12</t>
+          <t>ISO 13485 / IEC 62304 / ISO 14971 - Medical Devices Package</t>
         </is>
       </c>
       <c r="B274">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>ASTM F2054/F2054M-13</t>
+          <t>ISO 13485 and ISO/TR 14969 Quality Management Systems Medical Devices Package</t>
         </is>
       </c>
       <c r="B275">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>ASTM F2369-04(2016)</t>
+          <t>ISO 13485:2016 Plus Redline</t>
         </is>
       </c>
       <c r="B276">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>ASTM F2456-04(2016)</t>
+          <t>ISO 13779-3:2018</t>
         </is>
       </c>
       <c r="B277">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>AWWA B130-2013</t>
+          <t>ISO 13802:2015</t>
         </is>
       </c>
       <c r="B278">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>AWWA C518-2013</t>
+          <t>ISO 13849 - Safety of Machinery Package</t>
         </is>
       </c>
       <c r="B279">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>AWWA C550-2013</t>
+          <t>ISO 13850 / ISO 14119 / ISO 14120 - Safety of Machinery Package</t>
         </is>
       </c>
       <c r="B280">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>AWWA C653-2013</t>
+          <t>ISO 13857:2008</t>
         </is>
       </c>
       <c r="B281">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>AWWA C654-2013</t>
+          <t>ISO 13920:1996</t>
         </is>
       </c>
       <c r="B282">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>BHMA A156.17-2004 (R2010)</t>
+          <t>ISO 14001 / ISO 14004 / ISO 19011 / ISO 14050 - Environmental Management Package</t>
         </is>
       </c>
       <c r="B283">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>BS EN 1615:2000</t>
+          <t>ISO 14001:2004</t>
         </is>
       </c>
       <c r="B284">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>BS EN 980 / BS EN 1041 / BS EN ISO 14971 / BS EN ISO 13485 Medical Devices Package</t>
+          <t>ISO 14001:2015[S]</t>
         </is>
       </c>
       <c r="B285">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>BS EN ISO 14046:2016</t>
+          <t>ISO 14044:2006</t>
         </is>
       </c>
       <c r="B286">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>BS OHSAS 18001 / BS OHSAS 18002 / ISO 14001 Occupational Health and Environmental Management Package</t>
+          <t>ISO 14050:2009</t>
         </is>
       </c>
       <c r="B287">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>CGA C-6-2013</t>
+          <t>ISO 14104:2014</t>
         </is>
       </c>
       <c r="B288">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>CGA P-1-2015</t>
+          <t>ISO 14184-1:2011</t>
         </is>
       </c>
       <c r="B289">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>CGA S-1.1-OSHA</t>
+          <t>ISO 14184-2:2011</t>
         </is>
       </c>
       <c r="B290">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>CGA S-1.2-2009</t>
+          <t>ISO 14644-5:2004</t>
         </is>
       </c>
       <c r="B291">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>DIN 75201:2011</t>
+          <t>ISO 14644-7:2004</t>
         </is>
       </c>
       <c r="B292">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>DIN EN 1706:2013</t>
+          <t>ISO 14698-1:2003</t>
         </is>
       </c>
       <c r="B293">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>DIN EN ISO 14971:2013</t>
+          <t>ISO 14698-2:2003</t>
         </is>
       </c>
       <c r="B294">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>DOD-A-24682</t>
+          <t>ISO 15189:2012</t>
         </is>
       </c>
       <c r="B295">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>IEC 60050-426 Ed. 2.0 b:2008</t>
+          <t>ISO 15223-1:2012</t>
         </is>
       </c>
       <c r="B296">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>IEC 60068-1 Ed. 7.0 b:2013</t>
+          <t>ISO 15223 - Symbols for Medical Devices Package</t>
         </is>
       </c>
       <c r="B297">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>IEC 60068-2-1 Ed. 6.0 b:2007</t>
+          <t>ISO 15378:2017</t>
         </is>
       </c>
       <c r="B298">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>IEC 60068-2-2 Ed. 5.0 b:2007</t>
+          <t>ISO 15489 - Information and Documentation Package</t>
         </is>
       </c>
       <c r="B299">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>IEC 60068-2-21 Ed. 6.0 en:2006</t>
+          <t>ISO 15496:2018</t>
         </is>
       </c>
       <c r="B300">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>IEC 60068-2-45 Ed. 1.0 b:1980</t>
+          <t>ISO 15628:2013</t>
         </is>
       </c>
       <c r="B301">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>IEC 60068-2-78 Ed. 2.0 b:2012</t>
+          <t>ISO 15744:2002</t>
         </is>
       </c>
       <c r="B302">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>IEC 60601-1 / 60601-1-2 / 60601-1-4 / 60601-1-6 Medical Electrical Equipment Package</t>
+          <t>ISO 15883-1:2006</t>
         </is>
       </c>
       <c r="B303">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>IEC 60601-2-25 Ed. 2.0 b:2011</t>
+          <t>ISO 16000-3:2011</t>
         </is>
       </c>
       <c r="B304">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>IEC 60601-2-27 Ed. 3.0 b:2011</t>
+          <t>ISO 16000-6:2011</t>
         </is>
       </c>
       <c r="B305">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>IEC 60664-1 Ed. 2.0 b:2007</t>
+          <t>ISO 16269-6:2014</t>
         </is>
       </c>
       <c r="B306">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>IEC 60938-2-1 Ed. 1.0 en:1999</t>
+          <t>ISO 16276-1:2007</t>
         </is>
       </c>
       <c r="B307">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>IEC 61675-1 Ed. 2.0 b:2013</t>
+          <t>ISO 1629:2013</t>
         </is>
       </c>
       <c r="B308">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>IEC 62304 Amd.1 Ed. 1.0 en:2015</t>
+          <t>ISO 17070:2015</t>
         </is>
       </c>
       <c r="B309">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>IEC 62305-3 Ed. 2.0 b:2010</t>
+          <t>ISO 17226-1:2008</t>
         </is>
       </c>
       <c r="B310">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>IEC 62366 Amd.1 Ed. 1.0 b:2014</t>
+          <t>ISO 17664:2017</t>
         </is>
       </c>
       <c r="B311">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>IEC GUIDE 115 Ed. 1.0 b:2007</t>
+          <t>ISO 17665-1:2006</t>
         </is>
       </c>
       <c r="B312">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>IEEE 1003.1-2016</t>
+          <t>ISO 18064:2014</t>
         </is>
       </c>
       <c r="B313">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>IEEE 519-2014</t>
+          <t>ISO 18369-1:2017</t>
         </is>
       </c>
       <c r="B314">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>IEEE/ISO/IEC 90003-2015</t>
+          <t>ISO 19011:2018 Plus Redline</t>
         </is>
       </c>
       <c r="B315">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>IPC 4101E-2017</t>
+          <t>ISO 19069-1:2015</t>
         </is>
       </c>
       <c r="B316">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>IPC A-610F-2014</t>
+          <t>ISO 19069-2:2016</t>
         </is>
       </c>
       <c r="B317">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>IPC A-610F-SP-2014</t>
+          <t>ISO 2016:1981</t>
         </is>
       </c>
       <c r="B318">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>ISO 1:2016</t>
+          <t>ISO 21500:2012</t>
         </is>
       </c>
       <c r="B319">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>ISO 10001:2007</t>
+          <t>ISO 22000 Food Safety Management Systems Package</t>
         </is>
       </c>
       <c r="B320">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>ISO 10005:2018</t>
+          <t>ISO 22005:2007</t>
         </is>
       </c>
       <c r="B321">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>ISO 10006:2017</t>
+          <t>ISO 22300 / ISO 22301 / ISO 22313 - Societal Security Business Continuity Package</t>
         </is>
       </c>
       <c r="B322">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>ISO 10007:2003</t>
+          <t>ISO 22300:2018</t>
         </is>
       </c>
       <c r="B323">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>ISO 10012:2003[S]</t>
+          <t>ISO 22301:2012</t>
         </is>
       </c>
       <c r="B324">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>ISO 10322-1:2016</t>
+          <t>ISO 24512:2007</t>
         </is>
       </c>
       <c r="B325">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>ISO 10322-2:2016</t>
+          <t>ISO 25539-1/Amd1:2005</t>
         </is>
       </c>
       <c r="B326">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>ISO 1043-1:2011</t>
+          <t>ISO 26000:2010</t>
         </is>
       </c>
       <c r="B327">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>ISO 1043-2:2011</t>
+          <t>ISO 2768 - General Tolerances Package</t>
         </is>
       </c>
       <c r="B328">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>ISO 1043-3:1996</t>
+          <t>ISO 28000:2007</t>
         </is>
       </c>
       <c r="B329">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>ISO 1043-4:1998</t>
+          <t>ISO 281:2007</t>
         </is>
       </c>
       <c r="B330">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>ISO 1101:2017</t>
+          <t>ISO 2859-1:1999</t>
         </is>
       </c>
       <c r="B331">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>ISO 11357-1:2016</t>
+          <t>ISO 286 - Geometrical Product Specifications Package</t>
         </is>
       </c>
       <c r="B332">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>ISO 11469:2000</t>
+          <t>ISO 294-1:2017</t>
         </is>
       </c>
       <c r="B333">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>ISO 11978:2017</t>
+          <t>ISO 31000:2018 Plus Redline</t>
         </is>
       </c>
       <c r="B334">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>ISO 12219-1:2012</t>
+          <t>ISO 3126:2005</t>
         </is>
       </c>
       <c r="B335">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>ISO 12219-4:2013</t>
+          <t>ISO 3167:2014</t>
         </is>
       </c>
       <c r="B336">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>ISO 12312-1:2013/Amd1:2015</t>
+          <t>ISO 34-1:2015</t>
         </is>
       </c>
       <c r="B337">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>ISO 13408-1:2008</t>
+          <t>ISO 37:2017</t>
         </is>
       </c>
       <c r="B338">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>ISO 13408-1:2008/Amd1:2013</t>
+          <t>ISO 4064-1:2014</t>
         </is>
       </c>
       <c r="B339">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>ISO 13485 / 14971 / 14969 - Medical Devices Package</t>
+          <t>ISO 4064-2:2014</t>
         </is>
       </c>
       <c r="B340">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>ISO 13802:2015</t>
+          <t>ISO 4288:1996</t>
         </is>
       </c>
       <c r="B341">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>ISO 13849 - Safety of Machinery Package</t>
+          <t>ISO 4435:2003</t>
         </is>
       </c>
       <c r="B342">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>ISO 13850 / ISO 14119 / ISO 14120 - Safety of Machinery Package</t>
+          <t>ISO 45001 / ISO 14001 - Environmental and Occupational Health and Safety Set</t>
         </is>
       </c>
       <c r="B343">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>ISO 13857:2008</t>
+          <t>ISO 4628-3:2003</t>
         </is>
       </c>
       <c r="B344">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>ISO 13920:1996</t>
+          <t>ISO 492:2014</t>
         </is>
       </c>
       <c r="B345">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>ISO 14001 / ISO 14004 / ISO 19011 / ISO 14050 - Environmental Management Package</t>
+          <t>ISO 4967:2013</t>
         </is>
       </c>
       <c r="B346">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>ISO 14001:2004</t>
+          <t>ISO 50001 and ANSI/MSE 50021 - Energy Management Systems Package</t>
         </is>
       </c>
       <c r="B347">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>ISO 14001:2015[S]</t>
+          <t>ISO 50001:2018</t>
         </is>
       </c>
       <c r="B348">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>ISO 14050:2009</t>
+          <t>ISO 527-1:2012</t>
         </is>
       </c>
       <c r="B349">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>ISO 14698-1:2003</t>
+          <t>ISO 5752:1982</t>
         </is>
       </c>
       <c r="B350">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>ISO 14698-2:2003</t>
+          <t>ISO 60:1977</t>
         </is>
       </c>
       <c r="B351">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>ISO 15223-1:2012</t>
+          <t>ISO 643:2012</t>
         </is>
       </c>
       <c r="B352">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>ISO 15223 - Symbols for Medical Devices Package</t>
+          <t>ISO 683-17:2014</t>
         </is>
       </c>
       <c r="B353">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>ISO 15489 - Information and Documentation Package</t>
+          <t>ISO 7-1:1994</t>
         </is>
       </c>
       <c r="B354">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>ISO 15628:2013</t>
+          <t>ISO 7153-1:2016</t>
         </is>
       </c>
       <c r="B355">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>ISO 16000-3:2011</t>
+          <t>ISO 7186:2011</t>
         </is>
       </c>
       <c r="B356">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>ISO 16000-6:2011</t>
+          <t>ISO 76:2006</t>
         </is>
       </c>
       <c r="B357">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>ISO 16269-6:2014</t>
+          <t>ISO 80079-36:2016</t>
         </is>
       </c>
       <c r="B358">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>ISO 16276-1:2007</t>
+          <t>ISO 80079-37:2016</t>
         </is>
       </c>
       <c r="B359">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>ISO 1629:2013</t>
+          <t>ISO 80369-7:2016</t>
         </is>
       </c>
       <c r="B360">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>ISO 17070:2015</t>
+          <t>ISO 811:2018</t>
         </is>
       </c>
       <c r="B361">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>ISO 17226-1:2008</t>
+          <t>ISO 812:2017</t>
         </is>
       </c>
       <c r="B362">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>ISO 18064:2014</t>
+          <t>ISO 8179-1:2004</t>
         </is>
       </c>
       <c r="B363">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>ISO 18369-1:2017</t>
+          <t>ISO 8362-4:2011</t>
         </is>
       </c>
       <c r="B364">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>ISO 19011:2018 Plus Redline</t>
+          <t>ISO 8536-1:2011</t>
         </is>
       </c>
       <c r="B365">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>ISO 19069-1:2015</t>
+          <t>ISO 8601:2004</t>
         </is>
       </c>
       <c r="B366">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>ISO 19069-2:2016</t>
+          <t>ISO 8772:2006</t>
         </is>
       </c>
       <c r="B367">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>ISO 2016:1981</t>
+          <t>ISO 8980-1:2017</t>
         </is>
       </c>
       <c r="B368">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>ISO 21500:2012</t>
+          <t>ISO 8980-2:2017</t>
         </is>
       </c>
       <c r="B369">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>ISO 22300:2018</t>
+          <t>ISO 9000:2015[F]</t>
         </is>
       </c>
       <c r="B370">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>ISO 22301:2012</t>
+          <t>ISO 9000:2015[S]</t>
         </is>
       </c>
       <c r="B371">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>ISO 26000:2010</t>
+          <t>ISO 9001 / ISO 14001 - Quality and Environmental Management Set</t>
         </is>
       </c>
       <c r="B372">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>ISO 2768 - General Tolerances Package</t>
+          <t>ISO 9001 / ISO 19011 - Quality Management Auditing Set</t>
         </is>
       </c>
       <c r="B373">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>ISO 28000:2007</t>
+          <t>ISO 9001 and ISO 9000 - Quality Management Set</t>
         </is>
       </c>
       <c r="B374">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>ISO 294-1:2017</t>
+          <t>ISO 9001 Quality Management for Small Businesses Package</t>
         </is>
       </c>
       <c r="B375">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>ISO 31000:2018 Plus Redline</t>
+          <t>ISO 9687:2015</t>
         </is>
       </c>
       <c r="B376">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>ISO 3126:2005</t>
+          <t>ISO Guide 30 / Guide 31 / Guide 33 / Guide 34 / Guide 35 Reference Materials Package</t>
         </is>
       </c>
       <c r="B377">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>ISO 3167:2014</t>
+          <t>ISO Guide 73:2009</t>
         </is>
       </c>
       <c r="B378">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>ISO 34-1:2015</t>
+          <t>ISO/IEC - 27001/27002/27005/27006 IT Security Techniques Package</t>
         </is>
       </c>
       <c r="B379">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>ISO 37:2017</t>
+          <t>ISO/IEC 12207:2008</t>
         </is>
       </c>
       <c r="B380">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>ISO 4435:2003</t>
+          <t>ISO/IEC 17025:2017 Plus Redline</t>
         </is>
       </c>
       <c r="B381">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>ISO 4628-3:2003</t>
+          <t>ISO/IEC 20000-1 / ISO/IEC 20000-2 - IT Service Management Systems Package</t>
         </is>
       </c>
       <c r="B382">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>ISO 50001 and ANSI/MSE 50021 - Energy Management Systems Package</t>
+          <t>ISO/IEC 20000 - Information Technology Service Management Package</t>
         </is>
       </c>
       <c r="B383">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>ISO 50001:2018</t>
+          <t>ISO/IEC 25010:2011</t>
         </is>
       </c>
       <c r="B384">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>ISO 527-1:2012</t>
+          <t>ISO/IEC 27003:2017</t>
         </is>
       </c>
       <c r="B385">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>ISO 5752:1982</t>
+          <t>ISO/IEC 27006:2015</t>
         </is>
       </c>
       <c r="B386">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>ISO 7-1:1994</t>
+          <t>ISO/IEC 27018 / ISO/IEC 29100 / ISO/IEC 27001 - Public Clouds Privacy Framework Package</t>
         </is>
       </c>
       <c r="B387">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>ISO 7186:2011</t>
+          <t>ISO/IEC 27018:2019</t>
         </is>
       </c>
       <c r="B388">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>ISO 80079-36:2016</t>
+          <t>ISO/IEC 27018:2019 and ISO/IEC 27018:2014 - Public Clouds Transition Set</t>
         </is>
       </c>
       <c r="B389">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>ISO 80079-37:2016</t>
+          <t>ISO/IEC 7810/Amd2:2012</t>
         </is>
       </c>
       <c r="B390">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>ISO 80369-7:2016</t>
+          <t>ISO/IEC 7810:2003</t>
         </is>
       </c>
       <c r="B391">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>ISO 812:2017</t>
+          <t>ISO/IEC 80079-34:2011</t>
         </is>
       </c>
       <c r="B392">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>ISO 8179-1:2004</t>
+          <t>ISO/IEC 80079-34:2018</t>
         </is>
       </c>
       <c r="B393">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>ISO 8362-4:2011</t>
+          <t>ISO/IEC Guide 98 - Uncertainty of Measurement Package</t>
         </is>
       </c>
       <c r="B394">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>ISO 8536-1:2011</t>
+          <t>ISO/IEC Guide 99:2007</t>
         </is>
       </c>
       <c r="B395">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>ISO 8601:2004</t>
+          <t>ISO/IEC/IEEE 15288:2015</t>
         </is>
       </c>
       <c r="B396">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>ISO 8772:2006</t>
+          <t>ISO/IEC/IEEE 24765:2010</t>
         </is>
       </c>
       <c r="B397">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>ISO 8980-1:2017</t>
+          <t>ISO/IEC/IEEE 90003:2018</t>
         </is>
       </c>
       <c r="B398">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>ISO 8980-2:2017</t>
+          <t>ISO/TR 10013:2001</t>
         </is>
       </c>
       <c r="B399">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>ISO 9000:2015[S]</t>
+          <t>ISO/TR 14121-2:2012</t>
         </is>
       </c>
       <c r="B400">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>ISO 9001 and ISO 9000 - Quality Management Set</t>
+          <t>ISO/TR 14969:2004</t>
         </is>
       </c>
       <c r="B401">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>ISO 9687:2015</t>
+          <t>ISO/TS 16281:2008</t>
         </is>
       </c>
       <c r="B402">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>ISO Guide 73:2009</t>
+          <t>ISO/TS 17665-2:2009</t>
         </is>
       </c>
       <c r="B403">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>ISO/IEC - 27001/27002/27005/27006 IT Security Techniques Package</t>
+          <t>ISO/TS 17665-3:2013</t>
         </is>
       </c>
       <c r="B404">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>ISO/IEC 12207:2008</t>
+          <t>ISO/TS 22002-2:2013</t>
         </is>
       </c>
       <c r="B405">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>ISO/IEC 20000 - Information Technology Service Management Package</t>
+          <t>ISO/TS 22002-6:2016</t>
         </is>
       </c>
       <c r="B406">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>ISO/IEC 25010:2011</t>
+          <t>JIS G 3445:2016</t>
         </is>
       </c>
       <c r="B407">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>ISO/IEC 27003:2017</t>
+          <t>JIS G 4805:2008</t>
         </is>
       </c>
       <c r="B408">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>ISO/IEC 27018:2019 and ISO/IEC 27018:2014 - Public Clouds Transition Set</t>
+          <t>Laboratory Inspection and Testing</t>
         </is>
       </c>
       <c r="B409">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>ISO/IEC 7810/Amd2:2012</t>
+          <t>NEMA 250-2014</t>
         </is>
       </c>
       <c r="B410">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>ISO/IEC 7810:2003</t>
+          <t>NFPA 1-2009</t>
         </is>
       </c>
       <c r="B411">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>ISO/IEC 80079-34:2011</t>
+          <t>ONORM EN ISO 19011:2018</t>
         </is>
       </c>
       <c r="B412">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>ISO/IEC/IEEE 15288:2015</t>
+          <t>OVE/ONORM EN ISO/IEC 17050-1:2010</t>
         </is>
       </c>
       <c r="B413">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>ISO/IEC/IEEE 24765:2010</t>
+          <t>QPL-85582-5(1)</t>
         </is>
       </c>
       <c r="B414">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>ISO/IEC/IEEE 90003:2018</t>
+          <t>SAE AMS 2418H-2011 (SAE AMS2418H-2011)</t>
         </is>
       </c>
       <c r="B415">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>ISO/TR 14969:2004</t>
+          <t>SAE AMS 2750E-2012 (SAE AMS2750E-2012)</t>
         </is>
       </c>
       <c r="B416">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>NEMA 250-2014</t>
+          <t>SAE AMS 3302H-2011 (SAE AMS3302H-2011)</t>
         </is>
       </c>
       <c r="B417">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>NFPA 1-2009</t>
+          <t>SAE AS 13000-2014 (SAE AS13000-2014)</t>
         </is>
       </c>
       <c r="B418">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>ONORM EN ISO 19011:2018</t>
+          <t>SAE AS 6500-2014 (SAE AS6500-2014)</t>
         </is>
       </c>
       <c r="B419">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>QPL-85582-5(1)</t>
+          <t>SAE AS 9100B-2004 (SAE AS9100B-2004)</t>
         </is>
       </c>
       <c r="B420">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>SAE AMS 2750E-2012 (SAE AMS2750E-2012)</t>
+          <t>SAE AS 9100D / SAE AS 9101F / SAE AS 9102B - Aviation and Space Quality Management Systems Package</t>
         </is>
       </c>
       <c r="B421">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>SAE AS 6500-2014 (SAE AS6500-2014)</t>
+          <t>SAE AS 9101C-2006 (SAE AS9101C-2006)</t>
         </is>
       </c>
       <c r="B422">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>SAE AS 9100B-2004 (SAE AS9100B-2004)</t>
+          <t>SAE AS 9104/1-2012 (SAE AS9104/1-2012)</t>
         </is>
       </c>
       <c r="B423">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>SAE AS 9100D / SAE AS 9101F / SAE AS 9102B - Aviation and Space Quality Management Systems Package</t>
+          <t>SAE EIA 649-1-2014 (SAE EIA649-1-2014)</t>
         </is>
       </c>
       <c r="B424">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>SAE AS 9101C-2006 (SAE AS9101C-2006)</t>
+          <t>SAE EIA 748C-2013 (SAE EIA748C-2013)</t>
         </is>
       </c>
       <c r="B425">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>SAE EIA 748C-2013 (SAE EIA748C-2013)</t>
+          <t>SS-EN ISO 14644-8:2013</t>
         </is>
       </c>
       <c r="B426">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
